--- a/bugs analyses/RIVPACS_2022/_2024 model build/Reference sites_bug samples_total and OTU abundances.xlsx
+++ b/bugs analyses/RIVPACS_2022/_2024 model build/Reference sites_bug samples_total and OTU abundances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubler\Desktop\BioMonORDEQ\bugs analyses\RIVPACS_2022\_2024 model build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD08C1-59E6-422C-BDAF-F043C3A739D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72476ED8-2B4D-4B03-BAB9-9C18FF8B8CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="881 ref samples" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8060" uniqueCount="2357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8062" uniqueCount="2359">
   <si>
     <t>act_id</t>
   </si>
@@ -7109,6 +7109,12 @@
   </si>
   <si>
     <t>OR_WS_170601020204_02_103395</t>
+  </si>
+  <si>
+    <t>SLH 11/20/2024: sample 140016 is showing up as the 8/7/2008 sample in AWQMS…WTF???!!!</t>
+  </si>
+  <si>
+    <t>SLH COMMENTS</t>
   </si>
 </sst>
 </file>
@@ -7221,12 +7227,22 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -38477,11 +38493,11 @@
     <sortCondition ref="D1:D882"/>
   </sortState>
   <conditionalFormatting sqref="K1:L1 J1:J1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
       <formula>200</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>200</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38492,10 +38508,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A178B41-92A1-4F9A-BE98-B5DBB4E8FE79}">
-  <dimension ref="A1:Q317"/>
+  <dimension ref="A1:R317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A139" sqref="A139:XFD139"/>
@@ -38512,10 +38528,9 @@
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38567,134 +38582,146 @@
       <c r="Q1" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>140016</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="R1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="9">
+        <v>186</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45.576666000000003</v>
+      </c>
+      <c r="G2" s="9">
+        <v>-118.31878</v>
+      </c>
+      <c r="H2" s="16">
+        <v>37053</v>
+      </c>
+      <c r="I2" s="9">
+        <v>512</v>
+      </c>
+      <c r="J2" s="9">
+        <v>335</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>16.207086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="13">
         <v>175</v>
       </c>
-      <c r="F2">
-        <v>44.958844999999997</v>
-      </c>
-      <c r="G2">
-        <v>-118.126627</v>
-      </c>
-      <c r="H2" s="12">
-        <v>39280</v>
-      </c>
-      <c r="I2">
-        <v>366</v>
-      </c>
-      <c r="J2">
-        <v>349</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="N2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1984</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="Q2">
-        <v>63.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>175</v>
-      </c>
-      <c r="F3">
-        <v>41.788899999999998</v>
-      </c>
-      <c r="G3">
-        <v>-124.07783999999999</v>
-      </c>
-      <c r="H3" s="12">
-        <v>40435</v>
-      </c>
-      <c r="I3">
-        <v>595</v>
-      </c>
-      <c r="J3">
-        <v>558</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2111</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F3" s="13">
+        <v>45.229407999999999</v>
+      </c>
+      <c r="G3" s="13">
+        <v>-117.35795</v>
+      </c>
+      <c r="H3" s="14">
+        <v>37485</v>
+      </c>
+      <c r="I3" s="13">
+        <v>522</v>
+      </c>
+      <c r="J3" s="13">
+        <v>339</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>2249</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>2250</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>2251</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>45.221498879999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>175</v>
       </c>
       <c r="F4">
-        <v>41.855460000000001</v>
+        <v>45.219636000000001</v>
       </c>
       <c r="G4">
-        <v>-123.85214999999999</v>
+        <v>-117.23614000000001</v>
       </c>
       <c r="H4" s="12">
-        <v>40435</v>
+        <v>37482</v>
       </c>
       <c r="I4">
-        <v>576</v>
+        <v>660</v>
       </c>
       <c r="J4">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="K4" t="s">
         <v>1567</v>
@@ -38703,95 +38730,101 @@
         <v>1567</v>
       </c>
       <c r="M4" t="s">
-        <v>1928</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1931</v>
+        <v>2324</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2325</v>
       </c>
       <c r="P4" t="s">
-        <v>1932</v>
+        <v>2326</v>
       </c>
       <c r="Q4">
-        <v>96.575552079999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27.766369910000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>175</v>
       </c>
       <c r="F5">
-        <v>41.954520000000002</v>
+        <v>42.840029999999999</v>
       </c>
       <c r="G5">
-        <v>-123.91289</v>
+        <v>-122.11756</v>
       </c>
       <c r="H5" s="12">
-        <v>42207</v>
+        <v>37470</v>
       </c>
       <c r="I5">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="J5">
-        <v>581</v>
+        <v>666</v>
       </c>
       <c r="K5" t="s">
         <v>1567</v>
       </c>
-      <c r="L5" t="s">
-        <v>1567</v>
+      <c r="L5" s="9" t="s">
+        <v>1566</v>
       </c>
       <c r="M5" t="s">
-        <v>1711</v>
+        <v>2172</v>
       </c>
       <c r="N5" t="s">
-        <v>414</v>
+        <v>133</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2173</v>
       </c>
       <c r="P5" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2174</v>
+      </c>
+      <c r="Q5">
+        <v>34.752061259999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="E6">
         <v>175</v>
       </c>
       <c r="F6">
-        <v>41.861980000000003</v>
+        <v>44.776108000000001</v>
       </c>
       <c r="G6">
-        <v>-123.96086</v>
+        <v>-118.49346</v>
       </c>
       <c r="H6" s="12">
-        <v>40764</v>
+        <v>37822</v>
       </c>
       <c r="I6">
-        <v>268</v>
+        <v>882</v>
       </c>
       <c r="J6">
-        <v>263</v>
+        <v>597</v>
       </c>
       <c r="K6" t="s">
         <v>1567</v>
@@ -38800,95 +38833,104 @@
         <v>1567</v>
       </c>
       <c r="M6" t="s">
-        <v>1933</v>
+        <v>1680</v>
       </c>
       <c r="N6" t="s">
-        <v>1934</v>
+        <v>226</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1681</v>
       </c>
       <c r="P6" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>175</v>
-      </c>
-      <c r="F7">
-        <v>41.845518200000001</v>
-      </c>
-      <c r="G7">
-        <v>-124.028345</v>
-      </c>
-      <c r="H7" s="12">
-        <v>37831</v>
-      </c>
-      <c r="I7">
-        <v>484</v>
-      </c>
-      <c r="J7">
-        <v>473</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1799</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1800</v>
-      </c>
-      <c r="P7" t="s">
-        <v>1801</v>
-      </c>
-      <c r="Q7">
-        <v>28.55055621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1682</v>
+      </c>
+      <c r="Q6">
+        <v>44.795257579999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="13">
+        <v>186</v>
+      </c>
+      <c r="F7" s="13">
+        <v>42.212659000000002</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-117.99316</v>
+      </c>
+      <c r="H7" s="14">
+        <v>37792</v>
+      </c>
+      <c r="I7" s="13">
+        <v>657</v>
+      </c>
+      <c r="J7" s="13">
+        <v>602</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>2278</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>2279</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>36.049999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="E8">
         <v>175</v>
       </c>
       <c r="F8">
-        <v>41.80977</v>
+        <v>44.880378999999998</v>
       </c>
       <c r="G8">
-        <v>-124.11208999999999</v>
+        <v>-118.57966</v>
       </c>
       <c r="H8" s="12">
-        <v>37832</v>
+        <v>37821</v>
       </c>
       <c r="I8">
-        <v>540</v>
+        <v>654</v>
       </c>
       <c r="J8">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="K8" t="s">
         <v>1567</v>
@@ -38897,148 +38939,157 @@
         <v>1567</v>
       </c>
       <c r="M8" t="s">
-        <v>2111</v>
+        <v>1781</v>
       </c>
       <c r="N8" t="s">
-        <v>2112</v>
+        <v>233</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1782</v>
       </c>
       <c r="P8" t="s">
-        <v>2113</v>
+        <v>1783</v>
       </c>
       <c r="Q8">
-        <v>77.415770969999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <v>175</v>
-      </c>
-      <c r="F9">
-        <v>41.856490000000001</v>
-      </c>
-      <c r="G9">
-        <v>-123.91194</v>
-      </c>
-      <c r="H9" s="12">
-        <v>40765</v>
-      </c>
-      <c r="I9">
-        <v>398</v>
-      </c>
-      <c r="J9">
-        <v>333</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1928</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1929</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1930</v>
-      </c>
-      <c r="Q9">
-        <v>30.43361019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>175</v>
-      </c>
-      <c r="F10">
-        <v>41.612020000000001</v>
-      </c>
-      <c r="G10">
-        <v>-123.29225</v>
-      </c>
-      <c r="H10" s="12">
-        <v>40442</v>
-      </c>
-      <c r="I10">
-        <v>578</v>
-      </c>
-      <c r="J10">
-        <v>518</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2201</v>
-      </c>
-      <c r="N10" t="s">
-        <v>2202</v>
-      </c>
-      <c r="P10" t="s">
-        <v>2203</v>
-      </c>
-      <c r="Q10">
-        <v>0.5579115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>22.498497650000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="13">
+        <v>186</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42.601033999999999</v>
+      </c>
+      <c r="G9" s="13">
+        <v>-118.70863</v>
+      </c>
+      <c r="H9" s="14">
+        <v>37863</v>
+      </c>
+      <c r="I9" s="13">
+        <v>609</v>
+      </c>
+      <c r="J9" s="13">
+        <v>595</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2017</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2020</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="13">
+        <v>186</v>
+      </c>
+      <c r="F10" s="13">
+        <v>44.899490999999998</v>
+      </c>
+      <c r="G10" s="13">
+        <v>-118.30782000000001</v>
+      </c>
+      <c r="H10" s="14">
+        <v>37837</v>
+      </c>
+      <c r="I10" s="13">
+        <v>624</v>
+      </c>
+      <c r="J10" s="13">
+        <v>557</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>83.881829580000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="E11">
         <v>175</v>
       </c>
       <c r="F11">
-        <v>41.328600000000002</v>
+        <v>45.098793999999998</v>
       </c>
       <c r="G11">
-        <v>-123.41992</v>
+        <v>-117.23468</v>
       </c>
       <c r="H11" s="12">
-        <v>41842</v>
+        <v>37832</v>
       </c>
       <c r="I11">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="J11">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="K11" t="s">
         <v>1567</v>
@@ -39047,189 +39098,204 @@
         <v>1567</v>
       </c>
       <c r="M11" t="s">
-        <v>1642</v>
+        <v>2123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2124</v>
       </c>
       <c r="P11" t="s">
-        <v>1643</v>
+        <v>2125</v>
       </c>
       <c r="Q11">
-        <v>42.16354956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12">
+        <v>26.538998639999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" s="13">
+        <v>186</v>
+      </c>
+      <c r="F12" s="13">
+        <v>44.506</v>
+      </c>
+      <c r="G12" s="13">
+        <v>-121.7863</v>
+      </c>
+      <c r="H12" s="14">
+        <v>37824</v>
+      </c>
+      <c r="I12" s="13">
+        <v>797</v>
+      </c>
+      <c r="J12" s="13">
+        <v>677</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>1663</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>95.929448399999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="9">
         <v>175</v>
       </c>
-      <c r="F12">
-        <v>41.614109999999997</v>
-      </c>
-      <c r="G12">
-        <v>-123.28187</v>
-      </c>
-      <c r="H12" s="12">
-        <v>41541</v>
-      </c>
-      <c r="I12">
-        <v>586</v>
-      </c>
-      <c r="J12">
-        <v>537</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2201</v>
-      </c>
-      <c r="N12" t="s">
-        <v>975</v>
-      </c>
-      <c r="P12" t="s">
-        <v>2204</v>
-      </c>
-      <c r="Q12">
-        <v>2.3446155200000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>186</v>
-      </c>
-      <c r="F13">
-        <v>41.358269999999997</v>
-      </c>
-      <c r="G13">
-        <v>-123.07451</v>
-      </c>
-      <c r="H13" s="12">
-        <v>40765</v>
-      </c>
-      <c r="I13">
-        <v>588</v>
-      </c>
-      <c r="J13">
-        <v>512</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2350</v>
-      </c>
-      <c r="P13" t="s">
-        <v>2351</v>
-      </c>
-      <c r="Q13">
-        <v>58.768781859999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F13" s="9">
+        <v>43.866399999999999</v>
+      </c>
+      <c r="G13" s="9">
+        <v>-122.13800000000001</v>
+      </c>
+      <c r="H13" s="16">
+        <v>37838</v>
+      </c>
+      <c r="I13" s="9">
+        <v>554</v>
+      </c>
+      <c r="J13" s="9">
+        <v>477</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>1761</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>1763</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>48.840439500000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="E14">
         <v>175</v>
       </c>
       <c r="F14">
-        <v>41.441049999999997</v>
+        <v>45.916156000000001</v>
       </c>
       <c r="G14">
-        <v>-123.35829</v>
+        <v>-117.00939</v>
       </c>
       <c r="H14" s="12">
-        <v>40758</v>
+        <v>38172</v>
       </c>
       <c r="I14">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="J14">
-        <v>533</v>
+        <v>615</v>
       </c>
       <c r="K14" t="s">
         <v>1567</v>
       </c>
       <c r="L14" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="M14" t="s">
-        <v>2007</v>
+        <v>2194</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2195</v>
       </c>
       <c r="P14" t="s">
-        <v>2008</v>
+        <v>2196</v>
       </c>
       <c r="Q14">
-        <v>0.93345889999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.78597395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="E15">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F15">
-        <v>41.364690000000003</v>
+        <v>44.840809999999998</v>
       </c>
       <c r="G15">
-        <v>-123.18716999999999</v>
+        <v>-118.137496</v>
       </c>
       <c r="H15" s="12">
-        <v>40064</v>
+        <v>38184</v>
       </c>
       <c r="I15">
-        <v>598</v>
+        <v>343</v>
       </c>
       <c r="J15">
-        <v>580</v>
+        <v>323</v>
       </c>
       <c r="K15" t="s">
         <v>1567</v>
@@ -39238,45 +39304,48 @@
         <v>1567</v>
       </c>
       <c r="M15" t="s">
-        <v>1888</v>
+        <v>280</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2086</v>
       </c>
       <c r="P15" t="s">
-        <v>1889</v>
+        <v>2087</v>
       </c>
       <c r="Q15">
-        <v>1.2622218000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>270</v>
       </c>
       <c r="E16">
         <v>175</v>
       </c>
       <c r="F16">
-        <v>41.552160000000001</v>
+        <v>45.350900000000003</v>
       </c>
       <c r="G16">
-        <v>-123.07013999999999</v>
+        <v>-121.48139999999999</v>
       </c>
       <c r="H16" s="12">
-        <v>42235</v>
+        <v>38213</v>
       </c>
       <c r="I16">
-        <v>593</v>
+        <v>544</v>
       </c>
       <c r="J16">
-        <v>564</v>
+        <v>407</v>
       </c>
       <c r="K16" t="s">
         <v>1567</v>
@@ -39285,45 +39354,51 @@
         <v>1567</v>
       </c>
       <c r="M16" t="s">
-        <v>2104</v>
+        <v>270</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1806</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1807</v>
       </c>
       <c r="P16" t="s">
-        <v>2105</v>
+        <v>1808</v>
       </c>
       <c r="Q16">
-        <v>74.600842490000005</v>
+        <v>19.056549270000001</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="E17">
         <v>175</v>
       </c>
       <c r="F17">
-        <v>41.736930000000001</v>
+        <v>45.340156</v>
       </c>
       <c r="G17">
-        <v>-123.54872</v>
+        <v>-117.59399000000001</v>
       </c>
       <c r="H17" s="12">
-        <v>40400</v>
+        <v>38576</v>
       </c>
       <c r="I17">
-        <v>561</v>
+        <v>351</v>
       </c>
       <c r="J17">
-        <v>529</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>1567</v>
@@ -39332,92 +39407,104 @@
         <v>1567</v>
       </c>
       <c r="M17" t="s">
-        <v>2148</v>
+        <v>1676</v>
       </c>
       <c r="N17" t="s">
-        <v>2148</v>
+        <v>1677</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1678</v>
       </c>
       <c r="P17" t="s">
-        <v>2151</v>
+        <v>1679</v>
+      </c>
+      <c r="Q17">
+        <v>68.012602819999998</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18">
-        <v>175</v>
-      </c>
-      <c r="F18">
-        <v>41.442250000000001</v>
-      </c>
-      <c r="G18">
-        <v>-123.35041</v>
-      </c>
-      <c r="H18" s="12">
-        <v>40758</v>
-      </c>
-      <c r="I18">
-        <v>583</v>
-      </c>
-      <c r="J18">
-        <v>572</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2007</v>
-      </c>
-      <c r="P18" t="s">
-        <v>2009</v>
-      </c>
-      <c r="Q18">
-        <v>39.576298129999998</v>
+      <c r="A18" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="9">
+        <v>186</v>
+      </c>
+      <c r="F18" s="9">
+        <v>45.178051000000004</v>
+      </c>
+      <c r="G18" s="9">
+        <v>-117.45923999999999</v>
+      </c>
+      <c r="H18" s="16">
+        <v>38578</v>
+      </c>
+      <c r="I18" s="9">
+        <v>601</v>
+      </c>
+      <c r="J18" s="9">
+        <v>541</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>2263</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>2161</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>2264</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>5.8284037</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>315</v>
       </c>
       <c r="E19">
         <v>175</v>
       </c>
       <c r="F19">
-        <v>41.367890000000003</v>
+        <v>45.956740000000003</v>
       </c>
       <c r="G19">
-        <v>-124.02434</v>
+        <v>-117.79177</v>
       </c>
       <c r="H19" s="12">
-        <v>40436</v>
+        <v>38593</v>
       </c>
       <c r="I19">
-        <v>587</v>
+        <v>351</v>
       </c>
       <c r="J19">
-        <v>527</v>
+        <v>313</v>
       </c>
       <c r="K19" t="s">
         <v>1567</v>
@@ -39426,45 +39513,51 @@
         <v>1567</v>
       </c>
       <c r="M19" t="s">
-        <v>2067</v>
+        <v>315</v>
+      </c>
+      <c r="N19" t="s">
+        <v>315</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1601</v>
       </c>
       <c r="P19" t="s">
-        <v>2068</v>
+        <v>1602</v>
       </c>
       <c r="Q19">
-        <v>10.375348799999999</v>
+        <v>9.4215671400000005</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>319</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>321</v>
       </c>
       <c r="E20">
         <v>175</v>
       </c>
       <c r="F20">
-        <v>41.39996</v>
+        <v>45.953347999999998</v>
       </c>
       <c r="G20">
-        <v>-124.0579</v>
+        <v>-117.80058</v>
       </c>
       <c r="H20" s="12">
-        <v>37845</v>
+        <v>38592</v>
       </c>
       <c r="I20">
-        <v>498</v>
+        <v>713</v>
       </c>
       <c r="J20">
-        <v>468</v>
+        <v>640</v>
       </c>
       <c r="K20" t="s">
         <v>1567</v>
@@ -39473,201 +39566,207 @@
         <v>1567</v>
       </c>
       <c r="M20" t="s">
-        <v>1949</v>
+        <v>2041</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2041</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2042</v>
       </c>
       <c r="P20" t="s">
-        <v>1950</v>
+        <v>2043</v>
+      </c>
+      <c r="Q20">
+        <v>18.137509999999999</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="A21" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="9">
-        <v>186</v>
-      </c>
-      <c r="F21" s="9">
-        <v>45.576666000000003</v>
-      </c>
-      <c r="G21" s="9">
-        <v>-118.31878</v>
-      </c>
-      <c r="H21" s="16">
-        <v>37053</v>
-      </c>
-      <c r="I21" s="9">
-        <v>512</v>
-      </c>
-      <c r="J21" s="9">
-        <v>335</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>1654</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>1655</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>1656</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>16.207086</v>
+      <c r="C21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21">
+        <v>175</v>
+      </c>
+      <c r="F21">
+        <v>45.829107</v>
+      </c>
+      <c r="G21">
+        <v>-118.14617</v>
+      </c>
+      <c r="H21" s="12">
+        <v>38895</v>
+      </c>
+      <c r="I21">
+        <v>689</v>
+      </c>
+      <c r="J21">
+        <v>633</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2004</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2005</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2006</v>
+      </c>
+      <c r="Q21">
+        <v>14.76245467</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>100</v>
+        <v>344</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>97</v>
+        <v>345</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="E22" s="13">
         <v>186</v>
       </c>
       <c r="F22" s="13">
-        <v>44.187715840000003</v>
+        <v>44.89611</v>
       </c>
       <c r="G22" s="13">
-        <v>-124.0912292</v>
+        <v>-122.14905</v>
       </c>
       <c r="H22" s="14">
-        <v>36370</v>
+        <v>39306</v>
       </c>
       <c r="I22" s="13">
-        <v>312</v>
+        <v>705</v>
       </c>
       <c r="J22" s="13">
-        <v>293</v>
+        <v>528</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>1567</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>1666</v>
+        <v>2226</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>280</v>
+        <v>2230</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>1668</v>
+        <v>2228</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>1670</v>
+        <v>2231</v>
       </c>
       <c r="Q22" s="13">
-        <v>24.472049999999999</v>
+        <v>43.460796170000002</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="A23" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="C23" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23">
         <v>175</v>
       </c>
-      <c r="F23" s="13">
-        <v>45.229407999999999</v>
-      </c>
-      <c r="G23" s="13">
-        <v>-117.35795</v>
-      </c>
-      <c r="H23" s="14">
-        <v>37485</v>
-      </c>
-      <c r="I23" s="13">
-        <v>522</v>
-      </c>
-      <c r="J23" s="13">
-        <v>339</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>2249</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>2250</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>2251</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>2252</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>45.221498879999999</v>
+      <c r="F23">
+        <v>45.179158000000001</v>
+      </c>
+      <c r="G23">
+        <v>-117.112083</v>
+      </c>
+      <c r="H23" s="12">
+        <v>39307</v>
+      </c>
+      <c r="I23">
+        <v>602</v>
+      </c>
+      <c r="J23">
+        <v>591</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2097</v>
+      </c>
+      <c r="N23" t="s">
+        <v>408</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2098</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2099</v>
+      </c>
+      <c r="Q23">
+        <v>83.814580000000007</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>414</v>
       </c>
       <c r="E24">
         <v>175</v>
       </c>
       <c r="F24">
-        <v>45.219636000000001</v>
+        <v>45.433999999999997</v>
       </c>
       <c r="G24">
-        <v>-117.23614000000001</v>
+        <v>-117.546583</v>
       </c>
       <c r="H24" s="12">
-        <v>37482</v>
+        <v>39277</v>
       </c>
       <c r="I24">
-        <v>660</v>
+        <v>599</v>
       </c>
       <c r="J24">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="K24" t="s">
         <v>1567</v>
@@ -39676,154 +39775,154 @@
         <v>1567</v>
       </c>
       <c r="M24" t="s">
-        <v>2324</v>
+        <v>1905</v>
       </c>
       <c r="O24" t="s">
-        <v>2325</v>
+        <v>1906</v>
       </c>
       <c r="P24" t="s">
-        <v>2326</v>
+        <v>1907</v>
       </c>
       <c r="Q24">
-        <v>27.766369910000002</v>
+        <v>49.43573</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="A25" s="6">
+        <v>140016</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25">
+        <v>175</v>
+      </c>
+      <c r="F25">
+        <v>44.958844999999997</v>
+      </c>
+      <c r="G25">
+        <v>-118.126627</v>
+      </c>
+      <c r="H25" s="17">
+        <v>39280</v>
+      </c>
+      <c r="I25">
+        <v>366</v>
+      </c>
+      <c r="J25">
+        <v>349</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1983</v>
+      </c>
+      <c r="N25" t="s">
+        <v>95</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1984</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1985</v>
+      </c>
+      <c r="Q25">
+        <v>63.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E26" s="9">
         <v>186</v>
       </c>
-      <c r="F25" s="9">
-        <v>42.458425679999998</v>
-      </c>
-      <c r="G25" s="9">
-        <v>-124.04997</v>
-      </c>
-      <c r="H25" s="16">
-        <v>39308</v>
-      </c>
-      <c r="I25" s="9">
-        <v>242</v>
-      </c>
-      <c r="J25" s="9">
-        <v>233</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>1751</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>1752</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>1753</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>1755</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>66.531540000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26">
-        <v>175</v>
-      </c>
-      <c r="F26">
-        <v>42.840029999999999</v>
-      </c>
-      <c r="G26">
-        <v>-122.11756</v>
-      </c>
-      <c r="H26" s="12">
-        <v>37470</v>
-      </c>
-      <c r="I26">
-        <v>678</v>
-      </c>
-      <c r="J26">
-        <v>666</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="F26" s="9">
+        <v>43.105060000000002</v>
+      </c>
+      <c r="G26" s="9">
+        <v>-122.39821999999999</v>
+      </c>
+      <c r="H26" s="16">
+        <v>39644</v>
+      </c>
+      <c r="I26" s="9">
+        <v>913</v>
+      </c>
+      <c r="J26" s="9">
+        <v>631</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>1567</v>
       </c>
       <c r="L26" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="M26" t="s">
-        <v>2172</v>
-      </c>
-      <c r="N26" t="s">
-        <v>133</v>
-      </c>
-      <c r="O26" t="s">
-        <v>2173</v>
-      </c>
-      <c r="P26" t="s">
-        <v>2174</v>
-      </c>
-      <c r="Q26">
-        <v>34.752061259999998</v>
+      <c r="M26" s="9" t="s">
+        <v>2213</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>2214</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>2215</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>76.921840000000003</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="E27">
         <v>175</v>
       </c>
       <c r="F27">
-        <v>45.091223990000003</v>
+        <v>45.603848999999997</v>
       </c>
       <c r="G27">
-        <v>-118.53302549999999</v>
+        <v>-116.75935</v>
       </c>
       <c r="H27" s="12">
-        <v>36796</v>
+        <v>40046</v>
       </c>
       <c r="I27">
-        <v>546</v>
+        <v>685</v>
       </c>
       <c r="J27">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="K27" t="s">
         <v>1567</v>
@@ -39832,51 +39931,48 @@
         <v>1567</v>
       </c>
       <c r="M27" t="s">
-        <v>1879</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1880</v>
+        <v>2220</v>
       </c>
       <c r="O27" t="s">
-        <v>1881</v>
+        <v>2224</v>
       </c>
       <c r="P27" t="s">
-        <v>1882</v>
+        <v>2225</v>
       </c>
       <c r="Q27">
-        <v>2.36164</v>
+        <v>86.596243079999994</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="E28">
         <v>175</v>
       </c>
       <c r="F28">
-        <v>42.800991629999999</v>
+        <v>41.699872999999997</v>
       </c>
       <c r="G28">
-        <v>-118.86748849999999</v>
+        <v>-116.07187999999999</v>
       </c>
       <c r="H28" s="12">
-        <v>37511</v>
+        <v>39977</v>
       </c>
       <c r="I28">
-        <v>642</v>
+        <v>613</v>
       </c>
       <c r="J28">
-        <v>623</v>
+        <v>565</v>
       </c>
       <c r="K28" t="s">
         <v>1567</v>
@@ -39885,51 +39981,48 @@
         <v>1567</v>
       </c>
       <c r="M28" t="s">
-        <v>1717</v>
+        <v>284</v>
       </c>
       <c r="N28" t="s">
-        <v>1718</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1719</v>
+        <v>284</v>
       </c>
       <c r="P28" t="s">
-        <v>1720</v>
+        <v>1683</v>
       </c>
       <c r="Q28">
-        <v>5.7320799999999998</v>
+        <v>79.112380000000002</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>431</v>
       </c>
       <c r="B29" t="s">
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>432</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>433</v>
       </c>
       <c r="E29">
         <v>175</v>
       </c>
       <c r="F29">
-        <v>44.776108000000001</v>
+        <v>41.960998539999999</v>
       </c>
       <c r="G29">
-        <v>-118.49346</v>
+        <v>-118.3919983</v>
       </c>
       <c r="H29" s="12">
-        <v>37822</v>
+        <v>38895</v>
       </c>
       <c r="I29">
-        <v>882</v>
+        <v>631</v>
       </c>
       <c r="J29">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K29" t="s">
         <v>1567</v>
@@ -39938,263 +40031,263 @@
         <v>1567</v>
       </c>
       <c r="M29" t="s">
-        <v>1680</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>433</v>
       </c>
       <c r="O29" t="s">
-        <v>1681</v>
+        <v>1645</v>
       </c>
       <c r="P29" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="Q29">
-        <v>44.795257579999998</v>
+        <v>69.964449999999999</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="13">
+      <c r="C30" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E30" s="9">
         <v>186</v>
       </c>
-      <c r="F30" s="13">
-        <v>42.212659000000002</v>
-      </c>
-      <c r="G30" s="13">
-        <v>-117.99316</v>
-      </c>
-      <c r="H30" s="14">
-        <v>37792</v>
-      </c>
-      <c r="I30" s="13">
-        <v>657</v>
-      </c>
-      <c r="J30" s="13">
-        <v>602</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>2277</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>2278</v>
-      </c>
-      <c r="P30" s="13" t="s">
-        <v>2279</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>36.049999999999997</v>
+      <c r="F30" s="9">
+        <v>45.268410000000003</v>
+      </c>
+      <c r="G30" s="9">
+        <v>-117.46301</v>
+      </c>
+      <c r="H30" s="16">
+        <v>40423</v>
+      </c>
+      <c r="I30" s="9">
+        <v>706</v>
+      </c>
+      <c r="J30" s="9">
+        <v>499</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>2045</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>46.489840880000003</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="A31" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" t="s">
-        <v>233</v>
-      </c>
-      <c r="E31">
+      <c r="C31" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="13">
+        <v>186</v>
+      </c>
+      <c r="F31" s="13">
+        <v>44.502099999999999</v>
+      </c>
+      <c r="G31" s="13">
+        <v>-121.79470000000001</v>
+      </c>
+      <c r="H31" s="14">
+        <v>40758</v>
+      </c>
+      <c r="I31" s="13">
+        <v>318</v>
+      </c>
+      <c r="J31" s="13">
+        <v>266</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>10.524211360000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>450</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32">
+        <v>186</v>
+      </c>
+      <c r="F32">
+        <v>44.361854000000001</v>
+      </c>
+      <c r="G32">
+        <v>-118.74251</v>
+      </c>
+      <c r="H32" s="12">
+        <v>40763</v>
+      </c>
+      <c r="I32">
+        <v>589</v>
+      </c>
+      <c r="J32">
+        <v>315</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M32" t="s">
+        <v>343</v>
+      </c>
+      <c r="N32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1852</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1853</v>
+      </c>
+      <c r="Q32">
+        <v>67.172008829999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>456</v>
+      </c>
+      <c r="D33" t="s">
+        <v>457</v>
+      </c>
+      <c r="E33">
         <v>175</v>
       </c>
-      <c r="F31">
-        <v>44.880378999999998</v>
-      </c>
-      <c r="G31">
-        <v>-118.57966</v>
-      </c>
-      <c r="H31" s="12">
-        <v>37821</v>
-      </c>
-      <c r="I31">
-        <v>654</v>
-      </c>
-      <c r="J31">
-        <v>534</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1781</v>
-      </c>
-      <c r="N31" t="s">
-        <v>233</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1782</v>
-      </c>
-      <c r="P31" t="s">
-        <v>1783</v>
-      </c>
-      <c r="Q31">
-        <v>22.498497650000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E32" s="13">
-        <v>186</v>
-      </c>
-      <c r="F32" s="13">
-        <v>42.601033999999999</v>
-      </c>
-      <c r="G32" s="13">
-        <v>-118.70863</v>
-      </c>
-      <c r="H32" s="14">
-        <v>37863</v>
-      </c>
-      <c r="I32" s="13">
-        <v>609</v>
-      </c>
-      <c r="J32" s="13">
-        <v>595</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>2017</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>2019</v>
-      </c>
-      <c r="P32" s="13" t="s">
-        <v>2020</v>
-      </c>
-      <c r="Q32" s="13">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="13">
-        <v>186</v>
-      </c>
-      <c r="F33" s="13">
-        <v>44.899490999999998</v>
-      </c>
-      <c r="G33" s="13">
-        <v>-118.30782000000001</v>
-      </c>
-      <c r="H33" s="14">
-        <v>37837</v>
-      </c>
-      <c r="I33" s="13">
-        <v>624</v>
-      </c>
-      <c r="J33" s="13">
-        <v>557</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>1598</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>1599</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>1600</v>
-      </c>
-      <c r="Q33" s="13">
-        <v>83.881829580000002</v>
+      <c r="F33">
+        <v>45.460006440000001</v>
+      </c>
+      <c r="G33">
+        <v>-123.454938</v>
+      </c>
+      <c r="H33" s="12">
+        <v>41129</v>
+      </c>
+      <c r="I33">
+        <v>928</v>
+      </c>
+      <c r="J33">
+        <v>735</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1969</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1970</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1971</v>
+      </c>
+      <c r="P33" t="s">
+        <v>1972</v>
+      </c>
+      <c r="Q33">
+        <v>33.559418909999998</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>458</v>
       </c>
       <c r="B34" t="s">
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>460</v>
       </c>
       <c r="E34">
         <v>175</v>
       </c>
       <c r="F34">
-        <v>45.098793999999998</v>
+        <v>45.539070510000002</v>
       </c>
       <c r="G34">
-        <v>-117.23468</v>
+        <v>-123.74356330000001</v>
       </c>
       <c r="H34" s="12">
-        <v>37832</v>
+        <v>41113</v>
       </c>
       <c r="I34">
-        <v>549</v>
+        <v>869</v>
       </c>
       <c r="J34">
-        <v>471</v>
+        <v>619</v>
       </c>
       <c r="K34" t="s">
         <v>1567</v>
@@ -40203,48 +40296,48 @@
         <v>1567</v>
       </c>
       <c r="M34" t="s">
-        <v>2123</v>
+        <v>1897</v>
       </c>
       <c r="O34" t="s">
-        <v>2124</v>
+        <v>1900</v>
       </c>
       <c r="P34" t="s">
-        <v>2125</v>
+        <v>1901</v>
       </c>
       <c r="Q34">
-        <v>26.538998639999999</v>
+        <v>52.698950000000004</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>251</v>
+        <v>464</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>247</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="E35">
         <v>175</v>
       </c>
       <c r="F35">
-        <v>43.96318479</v>
+        <v>45.299056</v>
       </c>
       <c r="G35">
-        <v>-123.9711468</v>
+        <v>-117.307694</v>
       </c>
       <c r="H35" s="12">
-        <v>39322</v>
+        <v>41166</v>
       </c>
       <c r="I35">
-        <v>570</v>
+        <v>369</v>
       </c>
       <c r="J35">
-        <v>217</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s">
         <v>1567</v>
@@ -40253,204 +40346,207 @@
         <v>1567</v>
       </c>
       <c r="M35" t="s">
-        <v>1603</v>
+        <v>411</v>
+      </c>
+      <c r="N35" t="s">
+        <v>411</v>
       </c>
       <c r="O35" t="s">
-        <v>1604</v>
+        <v>1850</v>
       </c>
       <c r="P35" t="s">
-        <v>1605</v>
+        <v>1851</v>
       </c>
       <c r="Q35">
-        <v>49.119869999999999</v>
+        <v>2.51733867</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B36" s="13" t="s">
+      <c r="A36" t="s">
+        <v>469</v>
+      </c>
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="13">
+      <c r="C36" t="s">
+        <v>470</v>
+      </c>
+      <c r="D36" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36">
         <v>186</v>
       </c>
-      <c r="F36" s="13">
-        <v>44.506</v>
-      </c>
-      <c r="G36" s="13">
-        <v>-121.7863</v>
-      </c>
-      <c r="H36" s="14">
-        <v>37824</v>
-      </c>
-      <c r="I36" s="13">
-        <v>797</v>
-      </c>
-      <c r="J36" s="13">
-        <v>677</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>1661</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>1663</v>
-      </c>
-      <c r="Q36" s="13">
-        <v>95.929448399999998</v>
+      <c r="F36">
+        <v>44.867397420000003</v>
+      </c>
+      <c r="G36">
+        <v>-122.25643909999999</v>
+      </c>
+      <c r="H36" s="12">
+        <v>41533</v>
+      </c>
+      <c r="I36">
+        <v>1007</v>
+      </c>
+      <c r="J36">
+        <v>783</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1813</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1814</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1815</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1816</v>
+      </c>
+      <c r="Q36">
+        <v>63.479046099999998</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="9">
-        <v>175</v>
-      </c>
-      <c r="F37" s="9">
-        <v>43.866399999999999</v>
-      </c>
-      <c r="G37" s="9">
-        <v>-122.13800000000001</v>
-      </c>
-      <c r="H37" s="16">
-        <v>37838</v>
-      </c>
-      <c r="I37" s="9">
-        <v>554</v>
-      </c>
-      <c r="J37" s="9">
-        <v>477</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>1766</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>1761</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>1762</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>1763</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>48.840439500000002</v>
+      <c r="C37" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="13">
+        <v>186</v>
+      </c>
+      <c r="F37" s="13">
+        <v>44.889960000000002</v>
+      </c>
+      <c r="G37" s="13">
+        <v>-122.14363</v>
+      </c>
+      <c r="H37" s="14">
+        <v>37853</v>
+      </c>
+      <c r="I37" s="13">
+        <v>590</v>
+      </c>
+      <c r="J37" s="13">
+        <v>525</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>2230</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>2228</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>2231</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>65.682986740000004</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>478</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38">
-        <v>175</v>
+        <v>236</v>
       </c>
       <c r="F38">
-        <v>45.916156000000001</v>
+        <v>45.371684999999999</v>
       </c>
       <c r="G38">
-        <v>-117.00939</v>
-      </c>
-      <c r="H38" s="12">
-        <v>38172</v>
+        <v>-116.761213</v>
+      </c>
+      <c r="H38" s="1">
+        <v>41515</v>
       </c>
       <c r="I38">
-        <v>630</v>
+        <v>775</v>
       </c>
       <c r="J38">
-        <v>615</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1567</v>
+        <v>596</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>1566</v>
       </c>
       <c r="L38" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M38" t="s">
-        <v>2194</v>
+        <v>1773</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1773</v>
       </c>
       <c r="O38" t="s">
-        <v>2195</v>
+        <v>2356</v>
       </c>
       <c r="P38" t="s">
-        <v>2196</v>
+        <v>1774</v>
       </c>
       <c r="Q38">
-        <v>1.78597395</v>
+        <v>8.7854838599999994</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>487</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>488</v>
       </c>
       <c r="E39">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F39">
-        <v>44.840809999999998</v>
+        <v>42.479810000000001</v>
       </c>
       <c r="G39">
-        <v>-118.137496</v>
+        <v>-116.92402</v>
       </c>
       <c r="H39" s="12">
-        <v>38184</v>
+        <v>41811</v>
       </c>
       <c r="I39">
-        <v>343</v>
+        <v>645</v>
       </c>
       <c r="J39">
-        <v>323</v>
+        <v>588</v>
       </c>
       <c r="K39" t="s">
         <v>1567</v>
@@ -40459,48 +40555,48 @@
         <v>1567</v>
       </c>
       <c r="M39" t="s">
-        <v>280</v>
-      </c>
-      <c r="O39" t="s">
-        <v>2086</v>
+        <v>2126</v>
+      </c>
+      <c r="N39" t="s">
+        <v>2127</v>
       </c>
       <c r="P39" t="s">
-        <v>2087</v>
+        <v>2128</v>
       </c>
       <c r="Q39">
-        <v>21.37</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>489</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>490</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>491</v>
       </c>
       <c r="E40">
         <v>175</v>
       </c>
       <c r="F40">
-        <v>45.350900000000003</v>
+        <v>42.635590000000001</v>
       </c>
       <c r="G40">
-        <v>-121.48139999999999</v>
+        <v>-116.840633</v>
       </c>
       <c r="H40" s="12">
-        <v>38213</v>
+        <v>41808</v>
       </c>
       <c r="I40">
-        <v>544</v>
+        <v>391</v>
       </c>
       <c r="J40">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
         <v>1567</v>
@@ -40509,472 +40605,472 @@
         <v>1567</v>
       </c>
       <c r="M40" t="s">
-        <v>270</v>
+        <v>2266</v>
       </c>
       <c r="N40" t="s">
-        <v>1806</v>
-      </c>
-      <c r="O40" t="s">
-        <v>1807</v>
+        <v>2267</v>
       </c>
       <c r="P40" t="s">
-        <v>1808</v>
+        <v>2268</v>
       </c>
       <c r="Q40">
-        <v>19.056549270000001</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>293</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="A41" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
-        <v>290</v>
-      </c>
-      <c r="D41" t="s">
-        <v>291</v>
-      </c>
-      <c r="E41">
+      <c r="C41" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E41" s="9">
+        <v>186</v>
+      </c>
+      <c r="F41" s="9">
+        <v>45.282119999999999</v>
+      </c>
+      <c r="G41" s="9">
+        <v>-121.465</v>
+      </c>
+      <c r="H41" s="16">
+        <v>41893</v>
+      </c>
+      <c r="I41" s="9">
+        <v>792</v>
+      </c>
+      <c r="J41" s="9">
+        <v>575</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>2175</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>2177</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>2179</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>70.510000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E42" s="9">
+        <v>186</v>
+      </c>
+      <c r="F42" s="9">
+        <v>45.287939999999999</v>
+      </c>
+      <c r="G42" s="9">
+        <v>-121.4776</v>
+      </c>
+      <c r="H42" s="16">
+        <v>41893</v>
+      </c>
+      <c r="I42" s="9">
+        <v>366</v>
+      </c>
+      <c r="J42" s="9">
+        <v>350</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>2175</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>2177</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>2180</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>49.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E43" s="9">
+        <v>186</v>
+      </c>
+      <c r="F43" s="9">
+        <v>42.721310000000003</v>
+      </c>
+      <c r="G43" s="9">
+        <v>-122.2779</v>
+      </c>
+      <c r="H43" s="16">
+        <v>41897</v>
+      </c>
+      <c r="I43" s="9">
+        <v>701</v>
+      </c>
+      <c r="J43" s="9">
+        <v>632</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>2257</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>2258</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>2259</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E44" s="9">
+        <v>186</v>
+      </c>
+      <c r="F44" s="9">
+        <v>42.720579999999998</v>
+      </c>
+      <c r="G44" s="9">
+        <v>-122.2499</v>
+      </c>
+      <c r="H44" s="16">
+        <v>41893</v>
+      </c>
+      <c r="I44" s="9">
+        <v>597</v>
+      </c>
+      <c r="J44" s="9">
+        <v>404</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>2257</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>2258</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>2260</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>97.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="E45" s="9">
+        <v>186</v>
+      </c>
+      <c r="F45" s="9">
+        <v>42.720689999999998</v>
+      </c>
+      <c r="G45" s="9">
+        <v>-122.2568</v>
+      </c>
+      <c r="H45" s="16">
+        <v>41897</v>
+      </c>
+      <c r="I45" s="9">
+        <v>414</v>
+      </c>
+      <c r="J45" s="9">
+        <v>388</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>2256</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>2257</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>2258</v>
+      </c>
+      <c r="P45" s="9" t="s">
+        <v>2260</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>16.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>507</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" t="s">
+        <v>509</v>
+      </c>
+      <c r="E46">
         <v>175</v>
       </c>
-      <c r="F41">
-        <v>44.586162899999998</v>
-      </c>
-      <c r="G41">
-        <v>-121.68105370000001</v>
-      </c>
-      <c r="H41" s="12">
-        <v>36749</v>
-      </c>
-      <c r="I41">
-        <v>573</v>
-      </c>
-      <c r="J41">
-        <v>451</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L41" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M41" t="s">
-        <v>1657</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1657</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1658</v>
-      </c>
-      <c r="P41" t="s">
-        <v>1659</v>
-      </c>
-      <c r="Q41">
-        <v>18.049320000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>297</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>295</v>
-      </c>
-      <c r="D42" t="s">
-        <v>296</v>
-      </c>
-      <c r="E42">
+      <c r="F46">
+        <v>44.183230000000002</v>
+      </c>
+      <c r="G46">
+        <v>-121.8655</v>
+      </c>
+      <c r="H46" s="12">
+        <v>41882</v>
+      </c>
+      <c r="I46">
+        <v>723</v>
+      </c>
+      <c r="J46">
+        <v>537</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M46" t="s">
+        <v>2330</v>
+      </c>
+      <c r="N46" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2331</v>
+      </c>
+      <c r="P46" t="s">
+        <v>2332</v>
+      </c>
+      <c r="Q46">
+        <v>98.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="E47" s="9">
+        <v>186</v>
+      </c>
+      <c r="F47" s="9">
+        <v>42.548226</v>
+      </c>
+      <c r="G47" s="9">
+        <v>-118.607912</v>
+      </c>
+      <c r="H47" s="16">
+        <v>42188</v>
+      </c>
+      <c r="I47" s="9">
+        <v>389</v>
+      </c>
+      <c r="J47" s="9">
+        <v>373</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>2337</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>2338</v>
+      </c>
+      <c r="P47" s="9" t="s">
+        <v>2341</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E48" s="9">
         <v>175</v>
       </c>
-      <c r="F42">
-        <v>44.569418499999998</v>
-      </c>
-      <c r="G42">
-        <v>-121.6465448</v>
-      </c>
-      <c r="H42" s="12">
-        <v>35654</v>
-      </c>
-      <c r="I42">
-        <v>207</v>
-      </c>
-      <c r="J42">
-        <v>205</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L42" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M42" t="s">
-        <v>1859</v>
-      </c>
-      <c r="N42" t="s">
-        <v>1859</v>
-      </c>
-      <c r="O42" t="s">
-        <v>1860</v>
-      </c>
-      <c r="P42" t="s">
-        <v>1861</v>
-      </c>
-      <c r="Q42">
-        <v>25.749580000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E43" s="13">
-        <v>186</v>
-      </c>
-      <c r="F43" s="13">
-        <v>44.510470849999997</v>
-      </c>
-      <c r="G43" s="13">
-        <v>-121.70789689999999</v>
-      </c>
-      <c r="H43" s="14">
-        <v>42548</v>
-      </c>
-      <c r="I43" s="13">
-        <v>571</v>
-      </c>
-      <c r="J43" s="13">
-        <v>557</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>1661</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>1665</v>
-      </c>
-      <c r="Q43" s="13">
-        <v>44.336379999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>306</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>304</v>
-      </c>
-      <c r="D44" t="s">
-        <v>305</v>
-      </c>
-      <c r="E44">
-        <v>175</v>
-      </c>
-      <c r="F44">
-        <v>43.871077929999998</v>
-      </c>
-      <c r="G44">
-        <v>-121.9022593</v>
-      </c>
-      <c r="H44" s="12">
-        <v>35689</v>
-      </c>
-      <c r="I44">
-        <v>395</v>
-      </c>
-      <c r="J44">
-        <v>394</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L44" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M44" t="s">
-        <v>1700</v>
-      </c>
-      <c r="O44" t="s">
-        <v>1701</v>
-      </c>
-      <c r="P44" t="s">
-        <v>1702</v>
-      </c>
-      <c r="Q44">
-        <v>60.537120000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>307</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="s">
-        <v>308</v>
-      </c>
-      <c r="D45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E45">
-        <v>175</v>
-      </c>
-      <c r="F45">
-        <v>45.340156</v>
-      </c>
-      <c r="G45">
-        <v>-117.59399000000001</v>
-      </c>
-      <c r="H45" s="12">
-        <v>38576</v>
-      </c>
-      <c r="I45">
-        <v>351</v>
-      </c>
-      <c r="J45">
-        <v>313</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L45" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M45" t="s">
-        <v>1676</v>
-      </c>
-      <c r="N45" t="s">
-        <v>1677</v>
-      </c>
-      <c r="O45" t="s">
-        <v>1678</v>
-      </c>
-      <c r="P45" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q45">
-        <v>68.012602819999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E46" s="9">
-        <v>186</v>
-      </c>
-      <c r="F46" s="9">
-        <v>45.178051000000004</v>
-      </c>
-      <c r="G46" s="9">
-        <v>-117.45923999999999</v>
-      </c>
-      <c r="H46" s="16">
-        <v>38578</v>
-      </c>
-      <c r="I46" s="9">
-        <v>601</v>
-      </c>
-      <c r="J46" s="9">
-        <v>541</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>2263</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>2161</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>2264</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>2265</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>5.8284037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>313</v>
-      </c>
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" t="s">
-        <v>314</v>
-      </c>
-      <c r="D47" t="s">
-        <v>315</v>
-      </c>
-      <c r="E47">
-        <v>175</v>
-      </c>
-      <c r="F47">
-        <v>45.956740000000003</v>
-      </c>
-      <c r="G47">
-        <v>-117.79177</v>
-      </c>
-      <c r="H47" s="12">
-        <v>38593</v>
-      </c>
-      <c r="I47">
-        <v>351</v>
-      </c>
-      <c r="J47">
-        <v>313</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L47" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M47" t="s">
-        <v>315</v>
-      </c>
-      <c r="N47" t="s">
-        <v>315</v>
-      </c>
-      <c r="O47" t="s">
-        <v>1601</v>
-      </c>
-      <c r="P47" t="s">
-        <v>1602</v>
-      </c>
-      <c r="Q47">
-        <v>9.4215671400000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>319</v>
-      </c>
-      <c r="B48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" t="s">
-        <v>321</v>
-      </c>
-      <c r="E48">
-        <v>175</v>
-      </c>
-      <c r="F48">
-        <v>45.953347999999998</v>
-      </c>
-      <c r="G48">
-        <v>-117.80058</v>
-      </c>
-      <c r="H48" s="12">
-        <v>38592</v>
-      </c>
-      <c r="I48">
-        <v>713</v>
-      </c>
-      <c r="J48">
-        <v>640</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L48" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M48" t="s">
-        <v>2041</v>
-      </c>
-      <c r="N48" t="s">
-        <v>2041</v>
-      </c>
-      <c r="O48" t="s">
-        <v>2042</v>
-      </c>
-      <c r="P48" t="s">
-        <v>2043</v>
-      </c>
-      <c r="Q48">
-        <v>18.137509999999999</v>
+      <c r="F48" s="9">
+        <v>42.149455000000003</v>
+      </c>
+      <c r="G48" s="9">
+        <v>-118.330753</v>
+      </c>
+      <c r="H48" s="16">
+        <v>42221</v>
+      </c>
+      <c r="I48" s="9">
+        <v>585</v>
+      </c>
+      <c r="J48" s="9">
+        <v>536</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="P48" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>48.18</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>527</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>528</v>
       </c>
       <c r="D49" t="s">
-        <v>324</v>
+        <v>529</v>
       </c>
       <c r="E49">
         <v>186</v>
       </c>
       <c r="F49">
-        <v>42.638787659999998</v>
+        <v>42.131844000000001</v>
       </c>
       <c r="G49">
-        <v>-118.763194</v>
+        <v>-123.298883</v>
       </c>
       <c r="H49" s="12">
-        <v>37510</v>
+        <v>42239</v>
       </c>
       <c r="I49">
-        <v>711</v>
+        <v>547</v>
       </c>
       <c r="J49">
-        <v>706</v>
+        <v>459</v>
       </c>
       <c r="K49" t="s">
         <v>1567</v>
@@ -40983,101 +41079,104 @@
         <v>1567</v>
       </c>
       <c r="M49" t="s">
-        <v>2017</v>
+        <v>1739</v>
       </c>
       <c r="N49" t="s">
-        <v>1718</v>
+        <v>280</v>
       </c>
       <c r="O49" t="s">
-        <v>1719</v>
+        <v>1740</v>
       </c>
       <c r="P49" t="s">
-        <v>2018</v>
+        <v>1741</v>
       </c>
       <c r="Q49">
-        <v>98.470389999999995</v>
+        <v>88.31</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>336</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="A50" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C50" t="s">
-        <v>337</v>
-      </c>
-      <c r="D50" t="s">
-        <v>338</v>
-      </c>
-      <c r="E50">
-        <v>175</v>
-      </c>
-      <c r="F50">
-        <v>45.829107</v>
-      </c>
-      <c r="G50">
-        <v>-118.14617</v>
-      </c>
-      <c r="H50" s="12">
-        <v>38895</v>
-      </c>
-      <c r="I50">
+      <c r="C50" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="E50" s="13">
+        <v>186</v>
+      </c>
+      <c r="F50" s="13">
+        <v>44.240418900000002</v>
+      </c>
+      <c r="G50" s="13">
+        <v>-124.0595395</v>
+      </c>
+      <c r="H50" s="14">
+        <v>42212</v>
+      </c>
+      <c r="I50" s="13">
+        <v>784</v>
+      </c>
+      <c r="J50" s="13">
         <v>689</v>
       </c>
-      <c r="J50">
-        <v>633</v>
-      </c>
-      <c r="K50" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L50" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M50" t="s">
-        <v>2004</v>
-      </c>
-      <c r="O50" t="s">
-        <v>2005</v>
-      </c>
-      <c r="P50" t="s">
-        <v>2006</v>
-      </c>
-      <c r="Q50">
-        <v>14.76245467</v>
+      <c r="K50" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>1705</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>48.46</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>344</v>
+        <v>538</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>345</v>
+        <v>539</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="E51" s="13">
         <v>186</v>
       </c>
       <c r="F51" s="13">
-        <v>44.89611</v>
+        <v>44.18804763</v>
       </c>
       <c r="G51" s="13">
-        <v>-122.14905</v>
+        <v>-124.0546844</v>
       </c>
       <c r="H51" s="14">
-        <v>39306</v>
+        <v>42213</v>
       </c>
       <c r="I51" s="13">
-        <v>705</v>
+        <v>632</v>
       </c>
       <c r="J51" s="13">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>1567</v>
@@ -41086,51 +41185,51 @@
         <v>1566</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>2226</v>
+        <v>1666</v>
       </c>
       <c r="N51" s="13" t="s">
-        <v>2230</v>
+        <v>280</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>2228</v>
+        <v>1668</v>
       </c>
       <c r="P51" s="13" t="s">
-        <v>2231</v>
+        <v>1670</v>
       </c>
       <c r="Q51" s="13">
-        <v>43.460796170000002</v>
+        <v>59.41</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>350</v>
+        <v>546</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>351</v>
+        <v>547</v>
       </c>
       <c r="D52" t="s">
-        <v>352</v>
+        <v>548</v>
       </c>
       <c r="E52">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F52">
-        <v>45.290101970000002</v>
+        <v>42.494449719999999</v>
       </c>
       <c r="G52">
-        <v>-121.92883260000001</v>
+        <v>-119.6875237</v>
       </c>
       <c r="H52" s="12">
-        <v>35989</v>
+        <v>42566</v>
       </c>
       <c r="I52">
-        <v>311</v>
+        <v>663</v>
       </c>
       <c r="J52">
-        <v>300</v>
+        <v>659</v>
       </c>
       <c r="K52" t="s">
         <v>1567</v>
@@ -41139,48 +41238,51 @@
         <v>1567</v>
       </c>
       <c r="M52" t="s">
-        <v>1936</v>
+        <v>1823</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1824</v>
       </c>
       <c r="O52" t="s">
-        <v>1937</v>
+        <v>1825</v>
       </c>
       <c r="P52" t="s">
-        <v>1938</v>
+        <v>1826</v>
       </c>
       <c r="Q52">
-        <v>44.560070000000003</v>
+        <v>50.06</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>353</v>
+        <v>549</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>354</v>
+        <v>550</v>
       </c>
       <c r="D53" t="s">
-        <v>355</v>
+        <v>551</v>
       </c>
       <c r="E53">
         <v>175</v>
       </c>
       <c r="F53">
-        <v>45.468247959999999</v>
+        <v>42.524091560000002</v>
       </c>
       <c r="G53">
-        <v>-122.05321979999999</v>
+        <v>-119.7322106</v>
       </c>
       <c r="H53" s="12">
-        <v>35991</v>
+        <v>42945</v>
       </c>
       <c r="I53">
-        <v>292</v>
+        <v>541</v>
       </c>
       <c r="J53">
-        <v>277</v>
+        <v>531</v>
       </c>
       <c r="K53" t="s">
         <v>1567</v>
@@ -41189,210 +41291,210 @@
         <v>1567</v>
       </c>
       <c r="M53" t="s">
-        <v>1908</v>
+        <v>1823</v>
       </c>
       <c r="N53" t="s">
-        <v>78</v>
+        <v>1828</v>
       </c>
       <c r="O53" t="s">
-        <v>1909</v>
+        <v>1825</v>
       </c>
       <c r="P53" t="s">
-        <v>1910</v>
+        <v>1829</v>
       </c>
       <c r="Q53">
-        <v>53.813789999999997</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>364</v>
-      </c>
-      <c r="B54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="s">
-        <v>362</v>
-      </c>
-      <c r="D54" t="s">
-        <v>363</v>
-      </c>
-      <c r="E54">
-        <v>175</v>
-      </c>
-      <c r="F54">
-        <v>45.639336059999998</v>
-      </c>
-      <c r="G54">
-        <v>-123.7085144</v>
-      </c>
-      <c r="H54" s="12">
-        <v>35991</v>
-      </c>
-      <c r="I54">
-        <v>289</v>
-      </c>
-      <c r="J54">
-        <v>261</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M54" t="s">
-        <v>2028</v>
-      </c>
-      <c r="N54" t="s">
-        <v>2029</v>
-      </c>
-      <c r="O54" t="s">
-        <v>2030</v>
-      </c>
-      <c r="P54" t="s">
-        <v>2031</v>
-      </c>
-      <c r="Q54">
-        <v>37.271160000000002</v>
+      <c r="A54" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="13">
+        <v>186</v>
+      </c>
+      <c r="F54" s="13">
+        <v>44.4998</v>
+      </c>
+      <c r="G54" s="13">
+        <v>-121.80159999999999</v>
+      </c>
+      <c r="H54" s="14">
+        <v>43658</v>
+      </c>
+      <c r="I54" s="13">
+        <v>249</v>
+      </c>
+      <c r="J54" s="13">
+        <v>219</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>22.267180499999998</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>368</v>
+        <v>576</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="E55" s="13">
         <v>186</v>
       </c>
       <c r="F55" s="13">
-        <v>44.249199580000003</v>
+        <v>44.503100000000003</v>
       </c>
       <c r="G55" s="13">
-        <v>-124.09618879999999</v>
+        <v>-121.7777</v>
       </c>
       <c r="H55" s="14">
-        <v>35984</v>
+        <v>43657</v>
       </c>
       <c r="I55" s="13">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="J55" s="13">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K55" s="13" t="s">
         <v>1567</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>1703</v>
+        <v>258</v>
       </c>
       <c r="N55" s="13" t="s">
-        <v>537</v>
+        <v>258</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>1704</v>
+        <v>1661</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>1705</v>
+        <v>1663</v>
       </c>
       <c r="Q55" s="13">
-        <v>16.205190000000002</v>
+        <v>80.681907460000005</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="E56" s="13">
+      <c r="A56" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="E56" s="9">
         <v>186</v>
       </c>
-      <c r="F56" s="13">
-        <v>42.7095178</v>
-      </c>
-      <c r="G56" s="13">
-        <v>-124.3174477</v>
-      </c>
-      <c r="H56" s="14">
-        <v>36012</v>
-      </c>
-      <c r="I56" s="13">
-        <v>333</v>
-      </c>
-      <c r="J56" s="13">
-        <v>297</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M56" s="13" t="s">
-        <v>2205</v>
-      </c>
-      <c r="N56" s="13" t="s">
-        <v>2209</v>
-      </c>
-      <c r="O56" s="13" t="s">
-        <v>2207</v>
-      </c>
-      <c r="P56" s="13" t="s">
-        <v>2210</v>
-      </c>
-      <c r="Q56" s="13">
-        <v>9.9650000000000002E-2</v>
+      <c r="F56" s="9">
+        <v>42.625315999999998</v>
+      </c>
+      <c r="G56" s="9">
+        <v>-118.58625000000001</v>
+      </c>
+      <c r="H56" s="16">
+        <v>43717</v>
+      </c>
+      <c r="I56" s="9">
+        <v>605</v>
+      </c>
+      <c r="J56" s="9">
+        <v>550</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>2337</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>2338</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>2340</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>90.54</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>378</v>
+        <v>583</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>374</v>
+        <v>584</v>
       </c>
       <c r="D57" t="s">
-        <v>375</v>
+        <v>585</v>
       </c>
       <c r="E57">
         <v>175</v>
       </c>
       <c r="F57">
-        <v>45.262434720000002</v>
+        <v>42.048380999999999</v>
       </c>
       <c r="G57">
-        <v>-121.9208773</v>
+        <v>-118.698638</v>
       </c>
       <c r="H57" s="12">
-        <v>36377</v>
+        <v>43672</v>
       </c>
       <c r="I57">
-        <v>306</v>
+        <v>726</v>
       </c>
       <c r="J57">
-        <v>234</v>
+        <v>700</v>
       </c>
       <c r="K57" t="s">
         <v>1567</v>
@@ -41401,51 +41503,51 @@
         <v>1567</v>
       </c>
       <c r="M57" t="s">
-        <v>1992</v>
+        <v>2314</v>
       </c>
       <c r="N57" t="s">
-        <v>1993</v>
+        <v>2315</v>
       </c>
       <c r="O57" t="s">
-        <v>1994</v>
+        <v>2316</v>
       </c>
       <c r="P57" t="s">
-        <v>1995</v>
+        <v>2317</v>
       </c>
       <c r="Q57">
-        <v>0.15387000000000001</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>384</v>
+        <v>586</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>380</v>
+        <v>587</v>
       </c>
       <c r="D58" t="s">
-        <v>381</v>
+        <v>588</v>
       </c>
       <c r="E58">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F58">
-        <v>43.490473170000001</v>
+        <v>42.078482999999999</v>
       </c>
       <c r="G58">
-        <v>-122.7246789</v>
+        <v>-118.73709599999999</v>
       </c>
       <c r="H58" s="12">
-        <v>36412</v>
+        <v>43673</v>
       </c>
       <c r="I58">
-        <v>475</v>
+        <v>631</v>
       </c>
       <c r="J58">
-        <v>421</v>
+        <v>597</v>
       </c>
       <c r="K58" t="s">
         <v>1567</v>
@@ -41454,157 +41556,157 @@
         <v>1567</v>
       </c>
       <c r="M58" t="s">
-        <v>2182</v>
+        <v>1986</v>
       </c>
       <c r="N58" t="s">
-        <v>2183</v>
+        <v>1990</v>
       </c>
       <c r="O58" t="s">
-        <v>2184</v>
+        <v>1988</v>
       </c>
       <c r="P58" t="s">
-        <v>2186</v>
+        <v>1991</v>
       </c>
       <c r="Q58">
-        <v>58.270800000000001</v>
+        <v>95.97</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="E59" s="13">
-        <v>186</v>
-      </c>
-      <c r="F59" s="13">
-        <v>42.166860069999998</v>
-      </c>
-      <c r="G59" s="13">
-        <v>-118.22455189999999</v>
-      </c>
-      <c r="H59" s="14">
-        <v>36399</v>
-      </c>
-      <c r="I59" s="13">
-        <v>419</v>
-      </c>
-      <c r="J59" s="13">
-        <v>417</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>2309</v>
-      </c>
-      <c r="N59" s="13" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="P59" s="13" t="s">
-        <v>2313</v>
-      </c>
-      <c r="Q59" s="13">
-        <v>74.333370000000002</v>
+      <c r="A59" t="s">
+        <v>589</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>590</v>
+      </c>
+      <c r="D59" t="s">
+        <v>591</v>
+      </c>
+      <c r="E59">
+        <v>175</v>
+      </c>
+      <c r="F59">
+        <v>42.064135</v>
+      </c>
+      <c r="G59">
+        <v>-118.716044</v>
+      </c>
+      <c r="H59" s="12">
+        <v>43756</v>
+      </c>
+      <c r="I59">
+        <v>653</v>
+      </c>
+      <c r="J59">
+        <v>521</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1988</v>
+      </c>
+      <c r="P59" t="s">
+        <v>1989</v>
+      </c>
+      <c r="Q59">
+        <v>53.11</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E60" s="13">
-        <v>186</v>
-      </c>
-      <c r="F60" s="13">
-        <v>42.234142200000001</v>
-      </c>
-      <c r="G60" s="13">
-        <v>-118.2334271</v>
-      </c>
-      <c r="H60" s="14">
-        <v>36399</v>
-      </c>
-      <c r="I60" s="13">
-        <v>268</v>
-      </c>
-      <c r="J60" s="13">
-        <v>252</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M60" s="13" t="s">
-        <v>2309</v>
-      </c>
-      <c r="N60" s="13" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O60" s="13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="P60" s="13" t="s">
-        <v>2312</v>
-      </c>
-      <c r="Q60" s="13">
-        <v>44.82009</v>
+      <c r="A60" t="s">
+        <v>592</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>593</v>
+      </c>
+      <c r="D60" t="s">
+        <v>594</v>
+      </c>
+      <c r="E60">
+        <v>175</v>
+      </c>
+      <c r="F60">
+        <v>42.593093000000003</v>
+      </c>
+      <c r="G60">
+        <v>-118.649079</v>
+      </c>
+      <c r="H60" s="12">
+        <v>43729</v>
+      </c>
+      <c r="I60">
+        <v>868</v>
+      </c>
+      <c r="J60">
+        <v>770</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1588</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1589</v>
+      </c>
+      <c r="O60" t="s">
+        <v>1590</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Q60">
+        <v>60.61</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>402</v>
+        <v>595</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>398</v>
+        <v>596</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>399</v>
+        <v>597</v>
       </c>
       <c r="E61" s="9">
         <v>186</v>
       </c>
       <c r="F61" s="9">
-        <v>44.266474819999999</v>
+        <v>42.666791000000003</v>
       </c>
       <c r="G61" s="9">
-        <v>-124.0909954</v>
+        <v>-118.732024</v>
       </c>
       <c r="H61" s="16">
-        <v>36369</v>
+        <v>43699</v>
       </c>
       <c r="I61" s="9">
-        <v>305</v>
+        <v>797</v>
       </c>
       <c r="J61" s="9">
-        <v>268</v>
+        <v>775</v>
       </c>
       <c r="K61" s="9" t="s">
         <v>1567</v>
@@ -41613,207 +41715,210 @@
         <v>1566</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>1703</v>
+        <v>1866</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>928</v>
+        <v>1866</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>1704</v>
+        <v>1867</v>
       </c>
       <c r="P61" s="9" t="s">
-        <v>1706</v>
+        <v>1868</v>
       </c>
       <c r="Q61" s="9">
-        <v>20.04393</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>406</v>
+        <v>598</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>407</v>
+        <v>599</v>
       </c>
       <c r="D62" t="s">
-        <v>408</v>
+        <v>600</v>
       </c>
       <c r="E62">
         <v>175</v>
       </c>
       <c r="F62">
-        <v>45.179158000000001</v>
+        <v>42.645981999999997</v>
       </c>
       <c r="G62">
-        <v>-117.112083</v>
+        <v>-118.708929</v>
       </c>
       <c r="H62" s="12">
-        <v>39307</v>
+        <v>43757</v>
       </c>
       <c r="I62">
+        <v>630</v>
+      </c>
+      <c r="J62">
+        <v>605</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M62" t="s">
+        <v>343</v>
+      </c>
+      <c r="N62" t="s">
+        <v>343</v>
+      </c>
+      <c r="O62" t="s">
+        <v>1854</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1855</v>
+      </c>
+      <c r="Q62">
+        <v>72.260000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="J62">
-        <v>591</v>
-      </c>
-      <c r="K62" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L62" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M62" t="s">
-        <v>2097</v>
-      </c>
-      <c r="N62" t="s">
-        <v>408</v>
-      </c>
-      <c r="O62" t="s">
-        <v>2098</v>
-      </c>
-      <c r="P62" t="s">
-        <v>2099</v>
-      </c>
-      <c r="Q62">
-        <v>83.814580000000007</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>412</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D63" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="E63" s="13">
+        <v>186</v>
+      </c>
+      <c r="F63" s="13">
+        <v>42.608632</v>
+      </c>
+      <c r="G63" s="13">
+        <v>-118.70540099999999</v>
+      </c>
+      <c r="H63" s="14">
+        <v>43730</v>
+      </c>
+      <c r="I63" s="13">
+        <v>693</v>
+      </c>
+      <c r="J63" s="13">
+        <v>597</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>2017</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="O63" s="13" t="s">
+        <v>2019</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>2020</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>604</v>
+      </c>
+      <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C63" t="s">
-        <v>413</v>
-      </c>
-      <c r="D63" t="s">
-        <v>414</v>
-      </c>
-      <c r="E63">
+      <c r="C64" t="s">
+        <v>605</v>
+      </c>
+      <c r="D64" t="s">
+        <v>606</v>
+      </c>
+      <c r="E64">
         <v>175</v>
       </c>
-      <c r="F63">
-        <v>45.433999999999997</v>
-      </c>
-      <c r="G63">
-        <v>-117.546583</v>
-      </c>
-      <c r="H63" s="12">
-        <v>39277</v>
-      </c>
-      <c r="I63">
-        <v>599</v>
-      </c>
-      <c r="J63">
-        <v>584</v>
-      </c>
-      <c r="K63" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L63" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M63" t="s">
-        <v>1905</v>
-      </c>
-      <c r="O63" t="s">
-        <v>1906</v>
-      </c>
-      <c r="P63" t="s">
-        <v>1907</v>
-      </c>
-      <c r="Q63">
-        <v>49.43573</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E64" s="9">
-        <v>186</v>
-      </c>
-      <c r="F64" s="9">
-        <v>43.105060000000002</v>
-      </c>
-      <c r="G64" s="9">
-        <v>-122.39821999999999</v>
-      </c>
-      <c r="H64" s="16">
-        <v>39644</v>
-      </c>
-      <c r="I64" s="9">
-        <v>913</v>
-      </c>
-      <c r="J64" s="9">
-        <v>631</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>2213</v>
-      </c>
-      <c r="N64" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>2214</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>2215</v>
-      </c>
-      <c r="Q64" s="9">
-        <v>76.921840000000003</v>
+      <c r="F64">
+        <v>42.865428000000001</v>
+      </c>
+      <c r="G64">
+        <v>-118.55960899999999</v>
+      </c>
+      <c r="H64" s="12">
+        <v>43732</v>
+      </c>
+      <c r="I64">
+        <v>656</v>
+      </c>
+      <c r="J64">
+        <v>587</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1809</v>
+      </c>
+      <c r="N64" t="s">
+        <v>1810</v>
+      </c>
+      <c r="O64" t="s">
+        <v>1811</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1812</v>
+      </c>
+      <c r="Q64">
+        <v>27.23</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>425</v>
+        <v>607</v>
       </c>
       <c r="B65" t="s">
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>608</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
+        <v>609</v>
       </c>
       <c r="E65">
         <v>175</v>
       </c>
       <c r="F65">
-        <v>45.603848999999997</v>
+        <v>42.872926999999997</v>
       </c>
       <c r="G65">
-        <v>-116.75935</v>
+        <v>-118.406356</v>
       </c>
       <c r="H65" s="12">
-        <v>40046</v>
+        <v>43704</v>
       </c>
       <c r="I65">
-        <v>685</v>
+        <v>595</v>
       </c>
       <c r="J65">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="K65" t="s">
         <v>1567</v>
@@ -41822,413 +41927,422 @@
         <v>1567</v>
       </c>
       <c r="M65" t="s">
-        <v>2220</v>
+        <v>2129</v>
+      </c>
+      <c r="N65" t="s">
+        <v>2130</v>
       </c>
       <c r="O65" t="s">
-        <v>2224</v>
+        <v>2131</v>
       </c>
       <c r="P65" t="s">
-        <v>2225</v>
+        <v>2132</v>
       </c>
       <c r="Q65">
-        <v>86.596243079999994</v>
+        <v>84.22</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>428</v>
+        <v>610</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>611</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>612</v>
       </c>
       <c r="E66">
         <v>175</v>
       </c>
       <c r="F66">
-        <v>41.699872999999997</v>
+        <v>42.968347999999999</v>
       </c>
       <c r="G66">
-        <v>-116.07187999999999</v>
+        <v>-118.43976000000001</v>
       </c>
       <c r="H66" s="12">
-        <v>39977</v>
+        <v>43727</v>
       </c>
       <c r="I66">
+        <v>673</v>
+      </c>
+      <c r="J66">
+        <v>651</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1819</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1821</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1822</v>
+      </c>
+      <c r="Q66">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="J66">
-        <v>565</v>
-      </c>
-      <c r="K66" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L66" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M66" t="s">
-        <v>284</v>
-      </c>
-      <c r="N66" t="s">
-        <v>284</v>
-      </c>
-      <c r="P66" t="s">
-        <v>1683</v>
-      </c>
-      <c r="Q66">
-        <v>79.112380000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>431</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="B67" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
-        <v>432</v>
-      </c>
-      <c r="D67" t="s">
-        <v>433</v>
-      </c>
-      <c r="E67">
+      <c r="C67" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="E67" s="13">
+        <v>186</v>
+      </c>
+      <c r="F67" s="13">
+        <v>42.203249</v>
+      </c>
+      <c r="G67" s="13">
+        <v>-117.990037</v>
+      </c>
+      <c r="H67" s="14">
+        <v>43702</v>
+      </c>
+      <c r="I67" s="13">
+        <v>672</v>
+      </c>
+      <c r="J67" s="13">
+        <v>642</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>2277</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="O67" s="13" t="s">
+        <v>2278</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>2279</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>88.63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>616</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>617</v>
+      </c>
+      <c r="D68" t="s">
+        <v>618</v>
+      </c>
+      <c r="E68">
         <v>175</v>
       </c>
-      <c r="F67">
-        <v>41.960998539999999</v>
-      </c>
-      <c r="G67">
-        <v>-118.3919983</v>
-      </c>
-      <c r="H67" s="12">
-        <v>38895</v>
-      </c>
-      <c r="I67">
-        <v>631</v>
-      </c>
-      <c r="J67">
-        <v>604</v>
-      </c>
-      <c r="K67" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L67" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M67" t="s">
-        <v>277</v>
-      </c>
-      <c r="N67" t="s">
-        <v>433</v>
-      </c>
-      <c r="O67" t="s">
-        <v>1645</v>
-      </c>
-      <c r="P67" t="s">
-        <v>1687</v>
-      </c>
-      <c r="Q67">
-        <v>69.964449999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="F68">
+        <v>42.005341000000001</v>
+      </c>
+      <c r="G68">
+        <v>-118.215727</v>
+      </c>
+      <c r="H68" s="12">
+        <v>43744</v>
+      </c>
+      <c r="I68">
+        <v>619</v>
+      </c>
+      <c r="J68">
+        <v>574</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M68" t="s">
+        <v>2094</v>
+      </c>
+      <c r="N68" t="s">
+        <v>2094</v>
+      </c>
+      <c r="O68" t="s">
+        <v>2095</v>
+      </c>
+      <c r="P68" t="s">
+        <v>2096</v>
+      </c>
+      <c r="Q68">
+        <v>53.76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>619</v>
+      </c>
+      <c r="B69" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E68" s="9">
+      <c r="C69" t="s">
+        <v>620</v>
+      </c>
+      <c r="D69" t="s">
+        <v>621</v>
+      </c>
+      <c r="E69">
+        <v>175</v>
+      </c>
+      <c r="F69">
+        <v>42.309218999999999</v>
+      </c>
+      <c r="G69">
+        <v>-118.02612499999999</v>
+      </c>
+      <c r="H69" s="12">
+        <v>43704</v>
+      </c>
+      <c r="I69">
+        <v>706</v>
+      </c>
+      <c r="J69">
+        <v>700</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M69" t="s">
+        <v>2168</v>
+      </c>
+      <c r="N69" t="s">
+        <v>2169</v>
+      </c>
+      <c r="O69" t="s">
+        <v>2170</v>
+      </c>
+      <c r="P69" t="s">
+        <v>2171</v>
+      </c>
+      <c r="Q69">
+        <v>99.17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="E70" s="13">
         <v>186</v>
       </c>
-      <c r="F68" s="9">
-        <v>45.268410000000003</v>
-      </c>
-      <c r="G68" s="9">
-        <v>-117.46301</v>
-      </c>
-      <c r="H68" s="16">
-        <v>40423</v>
-      </c>
-      <c r="I68" s="9">
-        <v>706</v>
-      </c>
-      <c r="J68" s="9">
-        <v>499</v>
-      </c>
-      <c r="K68" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M68" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="N68" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>2044</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>2045</v>
-      </c>
-      <c r="Q68" s="9">
-        <v>46.489840880000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="B69" s="13" t="s">
+      <c r="F70" s="13">
+        <v>42.151302000000001</v>
+      </c>
+      <c r="G70" s="13">
+        <v>-118.22303599999999</v>
+      </c>
+      <c r="H70" s="14">
+        <v>43714</v>
+      </c>
+      <c r="I70" s="13">
+        <v>922</v>
+      </c>
+      <c r="J70" s="13">
+        <v>898</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>1828</v>
+      </c>
+      <c r="O70" s="13" t="s">
+        <v>2310</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E69" s="13">
+      <c r="C71" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E71" s="9">
         <v>186</v>
       </c>
-      <c r="F69" s="13">
-        <v>44.502099999999999</v>
-      </c>
-      <c r="G69" s="13">
-        <v>-121.79470000000001</v>
-      </c>
-      <c r="H69" s="14">
-        <v>40758</v>
-      </c>
-      <c r="I69" s="13">
-        <v>318</v>
-      </c>
-      <c r="J69" s="13">
-        <v>266</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L69" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M69" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="N69" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="O69" s="13" t="s">
-        <v>1661</v>
-      </c>
-      <c r="P69" s="13" t="s">
-        <v>1664</v>
-      </c>
-      <c r="Q69" s="13">
-        <v>10.524211360000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="F71" s="9">
+        <v>45.291649999999997</v>
+      </c>
+      <c r="G71" s="9">
+        <v>-121.4821</v>
+      </c>
+      <c r="H71" s="16">
+        <v>44805</v>
+      </c>
+      <c r="I71" s="9">
+        <v>692</v>
+      </c>
+      <c r="J71" s="9">
+        <v>662</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>2175</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>2176</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>2177</v>
+      </c>
+      <c r="P71" s="9" t="s">
+        <v>2180</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>82.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C70" t="s">
-        <v>342</v>
-      </c>
-      <c r="D70" t="s">
-        <v>343</v>
-      </c>
-      <c r="E70">
-        <v>186</v>
-      </c>
-      <c r="F70">
-        <v>44.361854000000001</v>
-      </c>
-      <c r="G70">
-        <v>-118.74251</v>
-      </c>
-      <c r="H70" s="12">
-        <v>40763</v>
-      </c>
-      <c r="I70">
-        <v>589</v>
-      </c>
-      <c r="J70">
-        <v>315</v>
-      </c>
-      <c r="K70" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L70" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M70" t="s">
-        <v>343</v>
-      </c>
-      <c r="N70" t="s">
-        <v>343</v>
-      </c>
-      <c r="O70" t="s">
-        <v>1852</v>
-      </c>
-      <c r="P70" t="s">
-        <v>1853</v>
-      </c>
-      <c r="Q70">
-        <v>67.172008829999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>455</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" t="s">
-        <v>456</v>
-      </c>
-      <c r="D71" t="s">
-        <v>457</v>
-      </c>
-      <c r="E71">
+      <c r="C72" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="13">
         <v>175</v>
       </c>
-      <c r="F71">
-        <v>45.460006440000001</v>
-      </c>
-      <c r="G71">
-        <v>-123.454938</v>
-      </c>
-      <c r="H71" s="12">
-        <v>41129</v>
-      </c>
-      <c r="I71">
-        <v>928</v>
-      </c>
-      <c r="J71">
-        <v>735</v>
-      </c>
-      <c r="K71" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L71" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M71" t="s">
-        <v>1969</v>
-      </c>
-      <c r="N71" t="s">
-        <v>1970</v>
-      </c>
-      <c r="O71" t="s">
-        <v>1971</v>
-      </c>
-      <c r="P71" t="s">
-        <v>1972</v>
-      </c>
-      <c r="Q71">
-        <v>33.559418909999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>458</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>459</v>
-      </c>
-      <c r="D72" t="s">
-        <v>460</v>
-      </c>
-      <c r="E72">
-        <v>175</v>
-      </c>
-      <c r="F72">
-        <v>45.539070510000002</v>
-      </c>
-      <c r="G72">
-        <v>-123.74356330000001</v>
-      </c>
-      <c r="H72" s="12">
-        <v>41113</v>
-      </c>
-      <c r="I72">
-        <v>869</v>
-      </c>
-      <c r="J72">
-        <v>619</v>
-      </c>
-      <c r="K72" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L72" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M72" t="s">
-        <v>1897</v>
-      </c>
-      <c r="O72" t="s">
-        <v>1900</v>
-      </c>
-      <c r="P72" t="s">
-        <v>1901</v>
-      </c>
-      <c r="Q72">
-        <v>52.698950000000004</v>
+      <c r="F72" s="13">
+        <v>44.094110000000001</v>
+      </c>
+      <c r="G72" s="13">
+        <v>-121.85662000000001</v>
+      </c>
+      <c r="H72" s="14">
+        <v>44822</v>
+      </c>
+      <c r="I72" s="13">
+        <v>788</v>
+      </c>
+      <c r="J72" s="13">
+        <v>674</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>1940</v>
+      </c>
+      <c r="O72" s="13" t="s">
+        <v>2293</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>2294</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>72.39</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>464</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>410</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>411</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>175</v>
       </c>
       <c r="F73">
-        <v>45.299056</v>
+        <v>41.788899999999998</v>
       </c>
       <c r="G73">
-        <v>-117.307694</v>
+        <v>-124.07783999999999</v>
       </c>
       <c r="H73" s="12">
-        <v>41166</v>
+        <v>40435</v>
       </c>
       <c r="I73">
-        <v>369</v>
+        <v>595</v>
       </c>
       <c r="J73">
-        <v>348</v>
+        <v>558</v>
       </c>
       <c r="K73" t="s">
         <v>1567</v>
@@ -42237,51 +42351,42 @@
         <v>1567</v>
       </c>
       <c r="M73" t="s">
-        <v>411</v>
-      </c>
-      <c r="N73" t="s">
-        <v>411</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1850</v>
+        <v>2111</v>
       </c>
       <c r="P73" t="s">
-        <v>1851</v>
-      </c>
-      <c r="Q73">
-        <v>2.51733867</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>469</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>471</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F74">
-        <v>44.867397420000003</v>
+        <v>41.855460000000001</v>
       </c>
       <c r="G74">
-        <v>-122.25643909999999</v>
+        <v>-123.85214999999999</v>
       </c>
       <c r="H74" s="12">
-        <v>41533</v>
+        <v>40435</v>
       </c>
       <c r="I74">
-        <v>1007</v>
+        <v>576</v>
       </c>
       <c r="J74">
-        <v>783</v>
+        <v>556</v>
       </c>
       <c r="K74" t="s">
         <v>1567</v>
@@ -42290,154 +42395,142 @@
         <v>1567</v>
       </c>
       <c r="M74" t="s">
-        <v>1813</v>
+        <v>1928</v>
       </c>
       <c r="N74" t="s">
-        <v>1814</v>
-      </c>
-      <c r="O74" t="s">
-        <v>1815</v>
+        <v>1931</v>
       </c>
       <c r="P74" t="s">
-        <v>1816</v>
+        <v>1932</v>
       </c>
       <c r="Q74">
-        <v>63.479046099999998</v>
+        <v>96.575552079999994</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E75" s="13">
-        <v>186</v>
-      </c>
-      <c r="F75" s="13">
-        <v>44.889960000000002</v>
-      </c>
-      <c r="G75" s="13">
-        <v>-122.14363</v>
-      </c>
-      <c r="H75" s="14">
-        <v>37853</v>
-      </c>
-      <c r="I75" s="13">
-        <v>590</v>
-      </c>
-      <c r="J75" s="13">
-        <v>525</v>
-      </c>
-      <c r="K75" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L75" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M75" s="13" t="s">
-        <v>2226</v>
-      </c>
-      <c r="N75" s="13" t="s">
-        <v>2230</v>
-      </c>
-      <c r="O75" s="13" t="s">
-        <v>2228</v>
-      </c>
-      <c r="P75" s="13" t="s">
-        <v>2231</v>
-      </c>
-      <c r="Q75" s="13">
-        <v>65.682986740000004</v>
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>175</v>
+      </c>
+      <c r="F75">
+        <v>41.954520000000002</v>
+      </c>
+      <c r="G75">
+        <v>-123.91289</v>
+      </c>
+      <c r="H75" s="12">
+        <v>42207</v>
+      </c>
+      <c r="I75">
+        <v>606</v>
+      </c>
+      <c r="J75">
+        <v>581</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1711</v>
+      </c>
+      <c r="N75" t="s">
+        <v>414</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>478</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>175</v>
       </c>
       <c r="F76">
-        <v>45.371684999999999</v>
+        <v>41.861980000000003</v>
       </c>
       <c r="G76">
-        <v>-116.761213</v>
-      </c>
-      <c r="H76" s="1">
-        <v>41515</v>
+        <v>-123.96086</v>
+      </c>
+      <c r="H76" s="12">
+        <v>40764</v>
       </c>
       <c r="I76">
-        <v>775</v>
+        <v>268</v>
       </c>
       <c r="J76">
-        <v>596</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>1566</v>
+        <v>263</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1567</v>
       </c>
       <c r="L76" t="s">
         <v>1567</v>
       </c>
       <c r="M76" t="s">
-        <v>1773</v>
+        <v>1933</v>
       </c>
       <c r="N76" t="s">
-        <v>1773</v>
-      </c>
-      <c r="O76" t="s">
-        <v>2356</v>
+        <v>1934</v>
       </c>
       <c r="P76" t="s">
-        <v>1774</v>
-      </c>
-      <c r="Q76">
-        <v>8.7854838599999994</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>487</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>488</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>175</v>
       </c>
       <c r="F77">
-        <v>42.479810000000001</v>
+        <v>41.845518200000001</v>
       </c>
       <c r="G77">
-        <v>-116.92402</v>
+        <v>-124.028345</v>
       </c>
       <c r="H77" s="12">
-        <v>41811</v>
+        <v>37831</v>
       </c>
       <c r="I77">
-        <v>645</v>
+        <v>484</v>
       </c>
       <c r="J77">
-        <v>588</v>
+        <v>473</v>
       </c>
       <c r="K77" t="s">
         <v>1567</v>
@@ -42446,48 +42539,48 @@
         <v>1567</v>
       </c>
       <c r="M77" t="s">
-        <v>2126</v>
+        <v>1799</v>
       </c>
       <c r="N77" t="s">
-        <v>2127</v>
+        <v>1800</v>
       </c>
       <c r="P77" t="s">
-        <v>2128</v>
+        <v>1801</v>
       </c>
       <c r="Q77">
-        <v>15.92</v>
+        <v>28.55055621</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>489</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>490</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>491</v>
+        <v>27</v>
       </c>
       <c r="E78">
         <v>175</v>
       </c>
       <c r="F78">
-        <v>42.635590000000001</v>
+        <v>41.80977</v>
       </c>
       <c r="G78">
-        <v>-116.840633</v>
+        <v>-124.11208999999999</v>
       </c>
       <c r="H78" s="12">
-        <v>41808</v>
+        <v>37832</v>
       </c>
       <c r="I78">
-        <v>391</v>
+        <v>540</v>
       </c>
       <c r="J78">
-        <v>353</v>
+        <v>502</v>
       </c>
       <c r="K78" t="s">
         <v>1567</v>
@@ -42496,313 +42589,292 @@
         <v>1567</v>
       </c>
       <c r="M78" t="s">
-        <v>2266</v>
+        <v>2111</v>
       </c>
       <c r="N78" t="s">
-        <v>2267</v>
+        <v>2112</v>
       </c>
       <c r="P78" t="s">
-        <v>2268</v>
+        <v>2113</v>
       </c>
       <c r="Q78">
-        <v>1.88</v>
+        <v>77.415770969999997</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E79" s="9">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79">
+        <v>175</v>
+      </c>
+      <c r="F79">
+        <v>41.856490000000001</v>
+      </c>
+      <c r="G79">
+        <v>-123.91194</v>
+      </c>
+      <c r="H79" s="12">
+        <v>40765</v>
+      </c>
+      <c r="I79">
+        <v>398</v>
+      </c>
+      <c r="J79">
+        <v>333</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1929</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1930</v>
+      </c>
+      <c r="Q79">
+        <v>30.43361019</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80">
+        <v>175</v>
+      </c>
+      <c r="F80">
+        <v>41.612020000000001</v>
+      </c>
+      <c r="G80">
+        <v>-123.29225</v>
+      </c>
+      <c r="H80" s="12">
+        <v>40442</v>
+      </c>
+      <c r="I80">
+        <v>578</v>
+      </c>
+      <c r="J80">
+        <v>518</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M80" t="s">
+        <v>2201</v>
+      </c>
+      <c r="N80" t="s">
+        <v>2202</v>
+      </c>
+      <c r="P80" t="s">
+        <v>2203</v>
+      </c>
+      <c r="Q80">
+        <v>0.5579115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81">
+        <v>175</v>
+      </c>
+      <c r="F81">
+        <v>41.328600000000002</v>
+      </c>
+      <c r="G81">
+        <v>-123.41992</v>
+      </c>
+      <c r="H81" s="12">
+        <v>41842</v>
+      </c>
+      <c r="I81">
+        <v>510</v>
+      </c>
+      <c r="J81">
+        <v>487</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1642</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q81">
+        <v>42.16354956</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82">
+        <v>175</v>
+      </c>
+      <c r="F82">
+        <v>41.614109999999997</v>
+      </c>
+      <c r="G82">
+        <v>-123.28187</v>
+      </c>
+      <c r="H82" s="12">
+        <v>41541</v>
+      </c>
+      <c r="I82">
+        <v>586</v>
+      </c>
+      <c r="J82">
+        <v>537</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M82" t="s">
+        <v>2201</v>
+      </c>
+      <c r="N82" t="s">
+        <v>975</v>
+      </c>
+      <c r="P82" t="s">
+        <v>2204</v>
+      </c>
+      <c r="Q82">
+        <v>2.3446155200000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83">
         <v>186</v>
       </c>
-      <c r="F79" s="9">
-        <v>45.282119999999999</v>
-      </c>
-      <c r="G79" s="9">
-        <v>-121.465</v>
-      </c>
-      <c r="H79" s="16">
-        <v>41893</v>
-      </c>
-      <c r="I79" s="9">
-        <v>792</v>
-      </c>
-      <c r="J79" s="9">
-        <v>575</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>2175</v>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>2176</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>2177</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>2179</v>
-      </c>
-      <c r="Q79" s="9">
-        <v>70.510000000000005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E80" s="9">
-        <v>186</v>
-      </c>
-      <c r="F80" s="9">
-        <v>45.287939999999999</v>
-      </c>
-      <c r="G80" s="9">
-        <v>-121.4776</v>
-      </c>
-      <c r="H80" s="16">
-        <v>41893</v>
-      </c>
-      <c r="I80" s="9">
-        <v>366</v>
-      </c>
-      <c r="J80" s="9">
-        <v>350</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>2175</v>
-      </c>
-      <c r="N80" s="9" t="s">
-        <v>2176</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>2177</v>
-      </c>
-      <c r="P80" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="Q80" s="9">
-        <v>49.24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="E81" s="9">
-        <v>186</v>
-      </c>
-      <c r="F81" s="9">
-        <v>42.721310000000003</v>
-      </c>
-      <c r="G81" s="9">
-        <v>-122.2779</v>
-      </c>
-      <c r="H81" s="16">
-        <v>41897</v>
-      </c>
-      <c r="I81" s="9">
-        <v>701</v>
-      </c>
-      <c r="J81" s="9">
-        <v>632</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>2257</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>2258</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>2259</v>
-      </c>
-      <c r="Q81" s="9">
-        <v>27.64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="E82" s="9">
-        <v>186</v>
-      </c>
-      <c r="F82" s="9">
-        <v>42.720579999999998</v>
-      </c>
-      <c r="G82" s="9">
-        <v>-122.2499</v>
-      </c>
-      <c r="H82" s="16">
-        <v>41893</v>
-      </c>
-      <c r="I82" s="9">
-        <v>597</v>
-      </c>
-      <c r="J82" s="9">
-        <v>404</v>
-      </c>
-      <c r="K82" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L82" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N82" s="9" t="s">
-        <v>2257</v>
-      </c>
-      <c r="O82" s="9" t="s">
-        <v>2258</v>
-      </c>
-      <c r="P82" s="9" t="s">
-        <v>2260</v>
-      </c>
-      <c r="Q82" s="9">
-        <v>97.35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="E83" s="9">
-        <v>186</v>
-      </c>
-      <c r="F83" s="9">
-        <v>42.720689999999998</v>
-      </c>
-      <c r="G83" s="9">
-        <v>-122.2568</v>
-      </c>
-      <c r="H83" s="16">
-        <v>41897</v>
-      </c>
-      <c r="I83" s="9">
-        <v>414</v>
-      </c>
-      <c r="J83" s="9">
-        <v>388</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L83" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>2256</v>
-      </c>
-      <c r="N83" s="9" t="s">
-        <v>2257</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>2258</v>
-      </c>
-      <c r="P83" s="9" t="s">
-        <v>2260</v>
-      </c>
-      <c r="Q83" s="9">
-        <v>16.82</v>
+      <c r="F83">
+        <v>41.358269999999997</v>
+      </c>
+      <c r="G83">
+        <v>-123.07451</v>
+      </c>
+      <c r="H83" s="12">
+        <v>40765</v>
+      </c>
+      <c r="I83">
+        <v>588</v>
+      </c>
+      <c r="J83">
+        <v>512</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M83" t="s">
+        <v>2350</v>
+      </c>
+      <c r="P83" t="s">
+        <v>2351</v>
+      </c>
+      <c r="Q83">
+        <v>58.768781859999997</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>507</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>508</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>509</v>
+        <v>53</v>
       </c>
       <c r="E84">
         <v>175</v>
       </c>
       <c r="F84">
-        <v>44.183230000000002</v>
+        <v>41.441049999999997</v>
       </c>
       <c r="G84">
-        <v>-121.8655</v>
+        <v>-123.35829</v>
       </c>
       <c r="H84" s="12">
-        <v>41882</v>
+        <v>40758</v>
       </c>
       <c r="I84">
-        <v>723</v>
+        <v>590</v>
       </c>
       <c r="J84">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K84" t="s">
         <v>1567</v>
@@ -42811,316 +42883,280 @@
         <v>1567</v>
       </c>
       <c r="M84" t="s">
-        <v>2330</v>
-      </c>
-      <c r="N84" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O84" t="s">
-        <v>2331</v>
+        <v>2007</v>
       </c>
       <c r="P84" t="s">
-        <v>2332</v>
+        <v>2008</v>
       </c>
       <c r="Q84">
-        <v>98.49</v>
+        <v>0.93345889999999998</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="E85" s="9">
-        <v>186</v>
-      </c>
-      <c r="F85" s="9">
-        <v>42.548226</v>
-      </c>
-      <c r="G85" s="9">
-        <v>-118.607912</v>
-      </c>
-      <c r="H85" s="16">
-        <v>42188</v>
-      </c>
-      <c r="I85" s="9">
-        <v>389</v>
-      </c>
-      <c r="J85" s="9">
-        <v>373</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L85" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>2337</v>
-      </c>
-      <c r="N85" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O85" s="9" t="s">
-        <v>2338</v>
-      </c>
-      <c r="P85" s="9" t="s">
-        <v>2341</v>
-      </c>
-      <c r="Q85" s="9">
-        <v>23.8</v>
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85">
+        <v>175</v>
+      </c>
+      <c r="F85">
+        <v>41.364690000000003</v>
+      </c>
+      <c r="G85">
+        <v>-123.18716999999999</v>
+      </c>
+      <c r="H85" s="12">
+        <v>40064</v>
+      </c>
+      <c r="I85">
+        <v>598</v>
+      </c>
+      <c r="J85">
+        <v>580</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1888</v>
+      </c>
+      <c r="P85" t="s">
+        <v>1889</v>
+      </c>
+      <c r="Q85">
+        <v>1.2622218000000001</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="E86" s="9">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86">
         <v>175</v>
       </c>
-      <c r="F86" s="9">
-        <v>42.149455000000003</v>
-      </c>
-      <c r="G86" s="9">
-        <v>-118.330753</v>
-      </c>
-      <c r="H86" s="16">
-        <v>42221</v>
-      </c>
-      <c r="I86" s="9">
-        <v>585</v>
-      </c>
-      <c r="J86" s="9">
-        <v>536</v>
-      </c>
-      <c r="K86" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L86" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M86" s="9" t="s">
-        <v>1615</v>
-      </c>
-      <c r="N86" s="9" t="s">
-        <v>1615</v>
-      </c>
-      <c r="O86" s="9" t="s">
-        <v>1616</v>
-      </c>
-      <c r="P86" s="9" t="s">
-        <v>1618</v>
-      </c>
-      <c r="Q86" s="9">
-        <v>48.18</v>
+      <c r="F86">
+        <v>41.552160000000001</v>
+      </c>
+      <c r="G86">
+        <v>-123.07013999999999</v>
+      </c>
+      <c r="H86" s="12">
+        <v>42235</v>
+      </c>
+      <c r="I86">
+        <v>593</v>
+      </c>
+      <c r="J86">
+        <v>564</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M86" t="s">
+        <v>2104</v>
+      </c>
+      <c r="P86" t="s">
+        <v>2105</v>
+      </c>
+      <c r="Q86">
+        <v>74.600842490000005</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87">
+        <v>175</v>
+      </c>
+      <c r="F87">
+        <v>41.736930000000001</v>
+      </c>
+      <c r="G87">
+        <v>-123.54872</v>
+      </c>
+      <c r="H87" s="12">
+        <v>40400</v>
+      </c>
+      <c r="I87">
+        <v>561</v>
+      </c>
+      <c r="J87">
+        <v>529</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M87" t="s">
+        <v>2148</v>
+      </c>
+      <c r="N87" t="s">
+        <v>2148</v>
+      </c>
+      <c r="P87" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88">
+        <v>175</v>
+      </c>
+      <c r="F88">
+        <v>41.442250000000001</v>
+      </c>
+      <c r="G88">
+        <v>-123.35041</v>
+      </c>
+      <c r="H88" s="12">
+        <v>40758</v>
+      </c>
+      <c r="I88">
+        <v>583</v>
+      </c>
+      <c r="J88">
+        <v>572</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M88" t="s">
+        <v>2007</v>
+      </c>
+      <c r="P88" t="s">
+        <v>2009</v>
+      </c>
+      <c r="Q88">
+        <v>39.576298129999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89">
+        <v>175</v>
+      </c>
+      <c r="F89">
+        <v>41.367890000000003</v>
+      </c>
+      <c r="G89">
+        <v>-124.02434</v>
+      </c>
+      <c r="H89" s="12">
+        <v>40436</v>
+      </c>
+      <c r="I89">
+        <v>587</v>
+      </c>
+      <c r="J89">
         <v>527</v>
       </c>
-      <c r="B87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" t="s">
-        <v>528</v>
-      </c>
-      <c r="D87" t="s">
-        <v>529</v>
-      </c>
-      <c r="E87">
-        <v>186</v>
-      </c>
-      <c r="F87">
-        <v>42.131844000000001</v>
-      </c>
-      <c r="G87">
-        <v>-123.298883</v>
-      </c>
-      <c r="H87" s="12">
-        <v>42239</v>
-      </c>
-      <c r="I87">
-        <v>547</v>
-      </c>
-      <c r="J87">
-        <v>459</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1739</v>
-      </c>
-      <c r="N87" t="s">
-        <v>280</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1740</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1741</v>
-      </c>
-      <c r="Q87">
-        <v>88.31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="E88" s="13">
-        <v>186</v>
-      </c>
-      <c r="F88" s="13">
-        <v>44.240418900000002</v>
-      </c>
-      <c r="G88" s="13">
-        <v>-124.0595395</v>
-      </c>
-      <c r="H88" s="14">
-        <v>42212</v>
-      </c>
-      <c r="I88" s="13">
-        <v>784</v>
-      </c>
-      <c r="J88" s="13">
-        <v>689</v>
-      </c>
-      <c r="K88" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L88" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M88" s="13" t="s">
-        <v>1703</v>
-      </c>
-      <c r="N88" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="O88" s="13" t="s">
-        <v>1704</v>
-      </c>
-      <c r="P88" s="13" t="s">
-        <v>1705</v>
-      </c>
-      <c r="Q88" s="13">
-        <v>48.46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E89" s="13">
-        <v>186</v>
-      </c>
-      <c r="F89" s="13">
-        <v>44.18804763</v>
-      </c>
-      <c r="G89" s="13">
-        <v>-124.0546844</v>
-      </c>
-      <c r="H89" s="14">
-        <v>42213</v>
-      </c>
-      <c r="I89" s="13">
-        <v>632</v>
-      </c>
-      <c r="J89" s="13">
-        <v>574</v>
-      </c>
-      <c r="K89" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L89" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M89" s="13" t="s">
-        <v>1666</v>
-      </c>
-      <c r="N89" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="O89" s="13" t="s">
-        <v>1668</v>
-      </c>
-      <c r="P89" s="13" t="s">
-        <v>1670</v>
-      </c>
-      <c r="Q89" s="13">
-        <v>59.41</v>
+      <c r="K89" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M89" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P89" t="s">
+        <v>2068</v>
+      </c>
+      <c r="Q89">
+        <v>10.375348799999999</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>546</v>
+        <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>547</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
-        <v>548</v>
+        <v>72</v>
       </c>
       <c r="E90">
         <v>175</v>
       </c>
       <c r="F90">
-        <v>42.494449719999999</v>
+        <v>41.39996</v>
       </c>
       <c r="G90">
-        <v>-119.6875237</v>
+        <v>-124.0579</v>
       </c>
       <c r="H90" s="12">
-        <v>42566</v>
+        <v>37845</v>
       </c>
       <c r="I90">
-        <v>663</v>
+        <v>498</v>
       </c>
       <c r="J90">
-        <v>659</v>
+        <v>468</v>
       </c>
       <c r="K90" t="s">
         <v>1567</v>
@@ -43129,157 +43165,148 @@
         <v>1567</v>
       </c>
       <c r="M90" t="s">
-        <v>1823</v>
-      </c>
-      <c r="N90" t="s">
-        <v>1824</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1825</v>
+        <v>1949</v>
       </c>
       <c r="P90" t="s">
-        <v>1826</v>
-      </c>
-      <c r="Q90">
-        <v>50.06</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>549</v>
-      </c>
-      <c r="B91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" t="s">
-        <v>550</v>
-      </c>
-      <c r="D91" t="s">
-        <v>551</v>
-      </c>
-      <c r="E91">
-        <v>175</v>
-      </c>
-      <c r="F91">
-        <v>42.524091560000002</v>
-      </c>
-      <c r="G91">
-        <v>-119.7322106</v>
-      </c>
-      <c r="H91" s="12">
-        <v>42945</v>
-      </c>
-      <c r="I91">
-        <v>541</v>
-      </c>
-      <c r="J91">
-        <v>531</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L91" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M91" t="s">
-        <v>1823</v>
-      </c>
-      <c r="N91" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O91" t="s">
-        <v>1825</v>
-      </c>
-      <c r="P91" t="s">
-        <v>1829</v>
-      </c>
-      <c r="Q91">
-        <v>55.8</v>
+      <c r="A91" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="13">
+        <v>186</v>
+      </c>
+      <c r="F91" s="13">
+        <v>44.187715840000003</v>
+      </c>
+      <c r="G91" s="13">
+        <v>-124.0912292</v>
+      </c>
+      <c r="H91" s="14">
+        <v>36370</v>
+      </c>
+      <c r="I91" s="13">
+        <v>312</v>
+      </c>
+      <c r="J91" s="13">
+        <v>293</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>1666</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="O91" s="13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="P91" s="13" t="s">
+        <v>1670</v>
+      </c>
+      <c r="Q91" s="13">
+        <v>24.472049999999999</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>563</v>
-      </c>
-      <c r="B92" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" t="s">
-        <v>559</v>
-      </c>
-      <c r="D92" t="s">
-        <v>560</v>
-      </c>
-      <c r="E92">
-        <v>175</v>
-      </c>
-      <c r="F92">
-        <v>44.512563620000002</v>
-      </c>
-      <c r="G92">
-        <v>-121.7448306</v>
-      </c>
-      <c r="H92" s="12">
-        <v>36031</v>
-      </c>
-      <c r="I92">
-        <v>380</v>
-      </c>
-      <c r="J92">
-        <v>347</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M92" t="s">
-        <v>258</v>
-      </c>
-      <c r="N92" t="s">
-        <v>1660</v>
-      </c>
-      <c r="O92" t="s">
-        <v>1661</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1662</v>
-      </c>
-      <c r="Q92">
-        <v>95.901430000000005</v>
+      <c r="A92" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="9">
+        <v>186</v>
+      </c>
+      <c r="F92" s="9">
+        <v>42.458425679999998</v>
+      </c>
+      <c r="G92" s="9">
+        <v>-124.04997</v>
+      </c>
+      <c r="H92" s="16">
+        <v>39308</v>
+      </c>
+      <c r="I92" s="9">
+        <v>242</v>
+      </c>
+      <c r="J92" s="9">
+        <v>233</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>1752</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>1753</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>1755</v>
+      </c>
+      <c r="Q92" s="9">
+        <v>66.531540000000007</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>569</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
         <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>565</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>566</v>
+        <v>144</v>
       </c>
       <c r="E93">
         <v>175</v>
       </c>
       <c r="F93">
-        <v>44.035050929999997</v>
+        <v>45.091223990000003</v>
       </c>
       <c r="G93">
-        <v>-121.7180685</v>
+        <v>-118.53302549999999</v>
       </c>
       <c r="H93" s="12">
-        <v>36032</v>
+        <v>36796</v>
       </c>
       <c r="I93">
-        <v>323</v>
+        <v>546</v>
       </c>
       <c r="J93">
-        <v>318</v>
+        <v>505</v>
       </c>
       <c r="K93" t="s">
         <v>1567</v>
@@ -43288,528 +43315,519 @@
         <v>1567</v>
       </c>
       <c r="M93" t="s">
-        <v>2115</v>
+        <v>1879</v>
       </c>
       <c r="N93" t="s">
-        <v>2115</v>
+        <v>1880</v>
       </c>
       <c r="O93" t="s">
-        <v>2116</v>
+        <v>1881</v>
       </c>
       <c r="P93" t="s">
-        <v>2117</v>
+        <v>1882</v>
       </c>
       <c r="Q93">
-        <v>65.546599999999998</v>
+        <v>2.36164</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+      <c r="C94" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" t="s">
+        <v>203</v>
+      </c>
+      <c r="E94">
+        <v>175</v>
+      </c>
+      <c r="F94">
+        <v>42.800991629999999</v>
+      </c>
+      <c r="G94">
+        <v>-118.86748849999999</v>
+      </c>
+      <c r="H94" s="12">
+        <v>37511</v>
+      </c>
+      <c r="I94">
+        <v>642</v>
+      </c>
+      <c r="J94">
+        <v>623</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1717</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1718</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1719</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1720</v>
+      </c>
+      <c r="Q94">
+        <v>5.7320799999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>251</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" t="s">
+        <v>248</v>
+      </c>
+      <c r="E95">
+        <v>175</v>
+      </c>
+      <c r="F95">
+        <v>43.96318479</v>
+      </c>
+      <c r="G95">
+        <v>-123.9711468</v>
+      </c>
+      <c r="H95" s="12">
+        <v>39322</v>
+      </c>
+      <c r="I95">
+        <v>570</v>
+      </c>
+      <c r="J95">
+        <v>217</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M95" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1604</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q95">
+        <v>49.119869999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E96">
+        <v>175</v>
+      </c>
+      <c r="F96">
+        <v>44.586162899999998</v>
+      </c>
+      <c r="G96">
+        <v>-121.68105370000001</v>
+      </c>
+      <c r="H96" s="12">
+        <v>36749</v>
+      </c>
+      <c r="I96">
         <v>573</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94" s="9" t="s">
+      <c r="J96">
+        <v>451</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M96" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N96" t="s">
+        <v>1657</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1658</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1659</v>
+      </c>
+      <c r="Q96">
+        <v>18.049320000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C97" t="s">
+        <v>295</v>
+      </c>
+      <c r="D97" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97">
+        <v>175</v>
+      </c>
+      <c r="F97">
+        <v>44.569418499999998</v>
+      </c>
+      <c r="G97">
+        <v>-121.6465448</v>
+      </c>
+      <c r="H97" s="12">
+        <v>35654</v>
+      </c>
+      <c r="I97">
+        <v>207</v>
+      </c>
+      <c r="J97">
+        <v>205</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1859</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1860</v>
+      </c>
+      <c r="P97" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Q97">
+        <v>25.749580000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="13">
+        <v>186</v>
+      </c>
+      <c r="F98" s="13">
+        <v>44.510470849999997</v>
+      </c>
+      <c r="G98" s="13">
+        <v>-121.70789689999999</v>
+      </c>
+      <c r="H98" s="14">
+        <v>42548</v>
+      </c>
+      <c r="I98" s="13">
         <v>571</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="E94" s="9">
-        <v>186</v>
-      </c>
-      <c r="F94" s="9">
-        <v>45.273671800000002</v>
-      </c>
-      <c r="G94" s="9">
-        <v>-122.04405800000001</v>
-      </c>
-      <c r="H94" s="16">
-        <v>36020</v>
-      </c>
-      <c r="I94" s="9">
-        <v>277</v>
-      </c>
-      <c r="J94" s="9">
-        <v>259</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>2197</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>1727</v>
-      </c>
-      <c r="O94" s="9" t="s">
-        <v>2198</v>
-      </c>
-      <c r="P94" s="9" t="s">
-        <v>2200</v>
-      </c>
-      <c r="Q94" s="9">
-        <v>32.235250000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" s="13" t="s">
+      <c r="J98" s="13">
+        <v>557</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L98" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M98" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="E95" s="13">
-        <v>186</v>
-      </c>
-      <c r="F95" s="13">
-        <v>44.4998</v>
-      </c>
-      <c r="G95" s="13">
-        <v>-121.80159999999999</v>
-      </c>
-      <c r="H95" s="14">
-        <v>43658</v>
-      </c>
-      <c r="I95" s="13">
-        <v>249</v>
-      </c>
-      <c r="J95" s="13">
-        <v>219</v>
-      </c>
-      <c r="K95" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L95" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M95" s="13" t="s">
+      <c r="N98" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="N95" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="O95" s="13" t="s">
+      <c r="O98" s="13" t="s">
         <v>1661</v>
       </c>
-      <c r="P95" s="13" t="s">
-        <v>1664</v>
-      </c>
-      <c r="Q95" s="13">
-        <v>22.267180499999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="E96" s="13">
-        <v>186</v>
-      </c>
-      <c r="F96" s="13">
-        <v>44.503100000000003</v>
-      </c>
-      <c r="G96" s="13">
-        <v>-121.7777</v>
-      </c>
-      <c r="H96" s="14">
-        <v>43657</v>
-      </c>
-      <c r="I96" s="13">
-        <v>292</v>
-      </c>
-      <c r="J96" s="13">
-        <v>264</v>
-      </c>
-      <c r="K96" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L96" s="13" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M96" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="N96" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="O96" s="13" t="s">
-        <v>1661</v>
-      </c>
-      <c r="P96" s="13" t="s">
-        <v>1663</v>
-      </c>
-      <c r="Q96" s="13">
-        <v>80.681907460000005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="E97" s="9">
-        <v>186</v>
-      </c>
-      <c r="F97" s="9">
-        <v>42.625315999999998</v>
-      </c>
-      <c r="G97" s="9">
-        <v>-118.58625000000001</v>
-      </c>
-      <c r="H97" s="16">
-        <v>43717</v>
-      </c>
-      <c r="I97" s="9">
-        <v>605</v>
-      </c>
-      <c r="J97" s="9">
-        <v>550</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M97" s="9" t="s">
-        <v>2337</v>
-      </c>
-      <c r="N97" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O97" s="9" t="s">
-        <v>2338</v>
-      </c>
-      <c r="P97" s="9" t="s">
-        <v>2340</v>
-      </c>
-      <c r="Q97" s="9">
-        <v>90.54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>583</v>
-      </c>
-      <c r="B98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" t="s">
-        <v>584</v>
-      </c>
-      <c r="D98" t="s">
-        <v>585</v>
-      </c>
-      <c r="E98">
-        <v>175</v>
-      </c>
-      <c r="F98">
-        <v>42.048380999999999</v>
-      </c>
-      <c r="G98">
-        <v>-118.698638</v>
-      </c>
-      <c r="H98" s="12">
-        <v>43672</v>
-      </c>
-      <c r="I98">
-        <v>726</v>
-      </c>
-      <c r="J98">
-        <v>700</v>
-      </c>
-      <c r="K98" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L98" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M98" t="s">
-        <v>2314</v>
-      </c>
-      <c r="N98" t="s">
-        <v>2315</v>
-      </c>
-      <c r="O98" t="s">
-        <v>2316</v>
-      </c>
-      <c r="P98" t="s">
-        <v>2317</v>
-      </c>
-      <c r="Q98">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P98" s="13" t="s">
+        <v>1665</v>
+      </c>
+      <c r="Q98" s="13">
+        <v>44.336379999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>586</v>
+        <v>306</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
-        <v>587</v>
+        <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>588</v>
+        <v>305</v>
       </c>
       <c r="E99">
         <v>175</v>
       </c>
       <c r="F99">
-        <v>42.078482999999999</v>
+        <v>43.871077929999998</v>
       </c>
       <c r="G99">
-        <v>-118.73709599999999</v>
+        <v>-121.9022593</v>
       </c>
       <c r="H99" s="12">
-        <v>43673</v>
+        <v>35689</v>
       </c>
       <c r="I99">
-        <v>631</v>
+        <v>395</v>
       </c>
       <c r="J99">
-        <v>597</v>
+        <v>394</v>
       </c>
       <c r="K99" t="s">
         <v>1567</v>
       </c>
       <c r="L99" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="M99" t="s">
-        <v>1986</v>
-      </c>
-      <c r="N99" t="s">
-        <v>1990</v>
+        <v>1700</v>
       </c>
       <c r="O99" t="s">
-        <v>1988</v>
+        <v>1701</v>
       </c>
       <c r="P99" t="s">
-        <v>1991</v>
+        <v>1702</v>
       </c>
       <c r="Q99">
-        <v>95.97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>60.537120000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>589</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>590</v>
+        <v>323</v>
       </c>
       <c r="D100" t="s">
-        <v>591</v>
+        <v>324</v>
       </c>
       <c r="E100">
+        <v>186</v>
+      </c>
+      <c r="F100">
+        <v>42.638787659999998</v>
+      </c>
+      <c r="G100">
+        <v>-118.763194</v>
+      </c>
+      <c r="H100" s="12">
+        <v>37510</v>
+      </c>
+      <c r="I100">
+        <v>711</v>
+      </c>
+      <c r="J100">
+        <v>706</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M100" t="s">
+        <v>2017</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1718</v>
+      </c>
+      <c r="O100" t="s">
+        <v>1719</v>
+      </c>
+      <c r="P100" t="s">
+        <v>2018</v>
+      </c>
+      <c r="Q100">
+        <v>98.470389999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" t="s">
+        <v>352</v>
+      </c>
+      <c r="E101">
+        <v>186</v>
+      </c>
+      <c r="F101">
+        <v>45.290101970000002</v>
+      </c>
+      <c r="G101">
+        <v>-121.92883260000001</v>
+      </c>
+      <c r="H101" s="12">
+        <v>35989</v>
+      </c>
+      <c r="I101">
+        <v>311</v>
+      </c>
+      <c r="J101">
+        <v>300</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1936</v>
+      </c>
+      <c r="O101" t="s">
+        <v>1937</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1938</v>
+      </c>
+      <c r="Q101">
+        <v>44.560070000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" t="s">
+        <v>354</v>
+      </c>
+      <c r="D102" t="s">
+        <v>355</v>
+      </c>
+      <c r="E102">
         <v>175</v>
       </c>
-      <c r="F100">
-        <v>42.064135</v>
-      </c>
-      <c r="G100">
-        <v>-118.716044</v>
-      </c>
-      <c r="H100" s="12">
-        <v>43756</v>
-      </c>
-      <c r="I100">
-        <v>653</v>
-      </c>
-      <c r="J100">
-        <v>521</v>
-      </c>
-      <c r="K100" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M100" t="s">
-        <v>1986</v>
-      </c>
-      <c r="N100" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O100" t="s">
-        <v>1988</v>
-      </c>
-      <c r="P100" t="s">
-        <v>1989</v>
-      </c>
-      <c r="Q100">
-        <v>53.11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>592</v>
-      </c>
-      <c r="B101" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" t="s">
-        <v>593</v>
-      </c>
-      <c r="D101" t="s">
-        <v>594</v>
-      </c>
-      <c r="E101">
-        <v>175</v>
-      </c>
-      <c r="F101">
-        <v>42.593093000000003</v>
-      </c>
-      <c r="G101">
-        <v>-118.649079</v>
-      </c>
-      <c r="H101" s="12">
-        <v>43729</v>
-      </c>
-      <c r="I101">
-        <v>868</v>
-      </c>
-      <c r="J101">
-        <v>770</v>
-      </c>
-      <c r="K101" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L101" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M101" t="s">
-        <v>1588</v>
-      </c>
-      <c r="N101" t="s">
-        <v>1589</v>
-      </c>
-      <c r="O101" t="s">
-        <v>1590</v>
-      </c>
-      <c r="P101" t="s">
-        <v>1591</v>
-      </c>
-      <c r="Q101">
-        <v>60.61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="E102" s="9">
-        <v>186</v>
-      </c>
-      <c r="F102" s="9">
-        <v>42.666791000000003</v>
-      </c>
-      <c r="G102" s="9">
-        <v>-118.732024</v>
-      </c>
-      <c r="H102" s="16">
-        <v>43699</v>
-      </c>
-      <c r="I102" s="9">
-        <v>797</v>
-      </c>
-      <c r="J102" s="9">
-        <v>775</v>
-      </c>
-      <c r="K102" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L102" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M102" s="9" t="s">
-        <v>1866</v>
-      </c>
-      <c r="N102" s="9" t="s">
-        <v>1866</v>
-      </c>
-      <c r="O102" s="9" t="s">
-        <v>1867</v>
-      </c>
-      <c r="P102" s="9" t="s">
-        <v>1868</v>
-      </c>
-      <c r="Q102" s="9">
-        <v>12.56</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>45.468247959999999</v>
+      </c>
+      <c r="G102">
+        <v>-122.05321979999999</v>
+      </c>
+      <c r="H102" s="12">
+        <v>35991</v>
+      </c>
+      <c r="I102">
+        <v>292</v>
+      </c>
+      <c r="J102">
+        <v>277</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1908</v>
+      </c>
+      <c r="N102" t="s">
+        <v>78</v>
+      </c>
+      <c r="O102" t="s">
+        <v>1909</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Q102">
+        <v>53.813789999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>598</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C103" t="s">
-        <v>599</v>
+        <v>362</v>
       </c>
       <c r="D103" t="s">
-        <v>600</v>
+        <v>363</v>
       </c>
       <c r="E103">
         <v>175</v>
       </c>
       <c r="F103">
-        <v>42.645981999999997</v>
+        <v>45.639336059999998</v>
       </c>
       <c r="G103">
-        <v>-118.708929</v>
+        <v>-123.7085144</v>
       </c>
       <c r="H103" s="12">
-        <v>43757</v>
+        <v>35991</v>
       </c>
       <c r="I103">
-        <v>630</v>
+        <v>289</v>
       </c>
       <c r="J103">
-        <v>605</v>
+        <v>261</v>
       </c>
       <c r="K103" t="s">
         <v>1567</v>
@@ -43818,157 +43836,157 @@
         <v>1567</v>
       </c>
       <c r="M103" t="s">
-        <v>343</v>
+        <v>2028</v>
       </c>
       <c r="N103" t="s">
-        <v>343</v>
+        <v>2029</v>
       </c>
       <c r="O103" t="s">
-        <v>1854</v>
+        <v>2030</v>
       </c>
       <c r="P103" t="s">
-        <v>1855</v>
+        <v>2031</v>
       </c>
       <c r="Q103">
-        <v>72.260000000000005</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+        <v>37.271160000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>601</v>
+        <v>368</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>602</v>
+        <v>366</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>603</v>
+        <v>367</v>
       </c>
       <c r="E104" s="13">
         <v>186</v>
       </c>
       <c r="F104" s="13">
-        <v>42.608632</v>
+        <v>44.249199580000003</v>
       </c>
       <c r="G104" s="13">
-        <v>-118.70540099999999</v>
+        <v>-124.09618879999999</v>
       </c>
       <c r="H104" s="14">
-        <v>43730</v>
+        <v>35984</v>
       </c>
       <c r="I104" s="13">
-        <v>693</v>
+        <v>268</v>
       </c>
       <c r="J104" s="13">
-        <v>597</v>
+        <v>259</v>
       </c>
       <c r="K104" s="13" t="s">
         <v>1567</v>
       </c>
       <c r="L104" s="13" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>2017</v>
+        <v>1703</v>
       </c>
       <c r="N104" s="13" t="s">
-        <v>239</v>
+        <v>537</v>
       </c>
       <c r="O104" s="13" t="s">
-        <v>2019</v>
+        <v>1704</v>
       </c>
       <c r="P104" s="13" t="s">
-        <v>2020</v>
+        <v>1705</v>
       </c>
       <c r="Q104" s="13">
-        <v>14.72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>604</v>
-      </c>
-      <c r="B105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" t="s">
-        <v>605</v>
-      </c>
-      <c r="D105" t="s">
-        <v>606</v>
-      </c>
-      <c r="E105">
-        <v>175</v>
-      </c>
-      <c r="F105">
-        <v>42.865428000000001</v>
-      </c>
-      <c r="G105">
-        <v>-118.55960899999999</v>
-      </c>
-      <c r="H105" s="12">
-        <v>43732</v>
-      </c>
-      <c r="I105">
-        <v>656</v>
-      </c>
-      <c r="J105">
-        <v>587</v>
-      </c>
-      <c r="K105" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M105" t="s">
-        <v>1809</v>
-      </c>
-      <c r="N105" t="s">
-        <v>1810</v>
-      </c>
-      <c r="O105" t="s">
-        <v>1811</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1812</v>
-      </c>
-      <c r="Q105">
-        <v>27.23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+        <v>16.205190000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E105" s="13">
+        <v>186</v>
+      </c>
+      <c r="F105" s="13">
+        <v>42.7095178</v>
+      </c>
+      <c r="G105" s="13">
+        <v>-124.3174477</v>
+      </c>
+      <c r="H105" s="14">
+        <v>36012</v>
+      </c>
+      <c r="I105" s="13">
+        <v>333</v>
+      </c>
+      <c r="J105" s="13">
+        <v>297</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>2205</v>
+      </c>
+      <c r="N105" s="13" t="s">
+        <v>2209</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>2207</v>
+      </c>
+      <c r="P105" s="13" t="s">
+        <v>2210</v>
+      </c>
+      <c r="Q105" s="13">
+        <v>9.9650000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>607</v>
+        <v>378</v>
       </c>
       <c r="B106" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C106" t="s">
-        <v>608</v>
+        <v>374</v>
       </c>
       <c r="D106" t="s">
-        <v>609</v>
+        <v>375</v>
       </c>
       <c r="E106">
         <v>175</v>
       </c>
       <c r="F106">
-        <v>42.872926999999997</v>
+        <v>45.262434720000002</v>
       </c>
       <c r="G106">
-        <v>-118.406356</v>
+        <v>-121.9208773</v>
       </c>
       <c r="H106" s="12">
-        <v>43704</v>
+        <v>36377</v>
       </c>
       <c r="I106">
-        <v>595</v>
+        <v>306</v>
       </c>
       <c r="J106">
-        <v>588</v>
+        <v>234</v>
       </c>
       <c r="K106" t="s">
         <v>1567</v>
@@ -43977,51 +43995,54 @@
         <v>1567</v>
       </c>
       <c r="M106" t="s">
-        <v>2129</v>
+        <v>1992</v>
       </c>
       <c r="N106" t="s">
-        <v>2130</v>
+        <v>1993</v>
       </c>
       <c r="O106" t="s">
-        <v>2131</v>
+        <v>1994</v>
       </c>
       <c r="P106" t="s">
-        <v>2132</v>
+        <v>1995</v>
       </c>
       <c r="Q106">
-        <v>84.22</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.15387000000000001</v>
+      </c>
+      <c r="R106" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>610</v>
+        <v>384</v>
       </c>
       <c r="B107" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C107" t="s">
-        <v>611</v>
+        <v>380</v>
       </c>
       <c r="D107" t="s">
-        <v>612</v>
+        <v>381</v>
       </c>
       <c r="E107">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F107">
-        <v>42.968347999999999</v>
+        <v>43.490473170000001</v>
       </c>
       <c r="G107">
-        <v>-118.43976000000001</v>
+        <v>-122.7246789</v>
       </c>
       <c r="H107" s="12">
-        <v>43727</v>
+        <v>36412</v>
       </c>
       <c r="I107">
-        <v>673</v>
+        <v>475</v>
       </c>
       <c r="J107">
-        <v>651</v>
+        <v>421</v>
       </c>
       <c r="K107" t="s">
         <v>1567</v>
@@ -44030,51 +44051,51 @@
         <v>1567</v>
       </c>
       <c r="M107" t="s">
-        <v>1819</v>
+        <v>2182</v>
       </c>
       <c r="N107" t="s">
-        <v>1820</v>
+        <v>2183</v>
       </c>
       <c r="O107" t="s">
-        <v>1821</v>
+        <v>2184</v>
       </c>
       <c r="P107" t="s">
-        <v>1822</v>
+        <v>2186</v>
       </c>
       <c r="Q107">
-        <v>40.99</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+        <v>58.270800000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>613</v>
+        <v>392</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>614</v>
+        <v>390</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>615</v>
+        <v>391</v>
       </c>
       <c r="E108" s="13">
         <v>186</v>
       </c>
       <c r="F108" s="13">
-        <v>42.203249</v>
+        <v>42.166860069999998</v>
       </c>
       <c r="G108" s="13">
-        <v>-117.990037</v>
+        <v>-118.22455189999999</v>
       </c>
       <c r="H108" s="14">
-        <v>43702</v>
+        <v>36399</v>
       </c>
       <c r="I108" s="13">
-        <v>672</v>
+        <v>419</v>
       </c>
       <c r="J108" s="13">
-        <v>642</v>
+        <v>417</v>
       </c>
       <c r="K108" s="13" t="s">
         <v>1567</v>
@@ -44083,284 +44104,284 @@
         <v>1566</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>2277</v>
+        <v>2309</v>
       </c>
       <c r="N108" s="13" t="s">
-        <v>230</v>
+        <v>1828</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>2278</v>
+        <v>2310</v>
       </c>
       <c r="P108" s="13" t="s">
-        <v>2279</v>
+        <v>2313</v>
       </c>
       <c r="Q108" s="13">
-        <v>88.63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>616</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" t="s">
-        <v>617</v>
-      </c>
-      <c r="D109" t="s">
-        <v>618</v>
-      </c>
-      <c r="E109">
+        <v>74.333370000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E109" s="13">
+        <v>186</v>
+      </c>
+      <c r="F109" s="13">
+        <v>42.234142200000001</v>
+      </c>
+      <c r="G109" s="13">
+        <v>-118.2334271</v>
+      </c>
+      <c r="H109" s="14">
+        <v>36399</v>
+      </c>
+      <c r="I109" s="13">
+        <v>268</v>
+      </c>
+      <c r="J109" s="13">
+        <v>252</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="N109" s="13" t="s">
+        <v>1828</v>
+      </c>
+      <c r="O109" s="13" t="s">
+        <v>2310</v>
+      </c>
+      <c r="P109" s="13" t="s">
+        <v>2312</v>
+      </c>
+      <c r="Q109" s="13">
+        <v>44.82009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E110" s="9">
+        <v>186</v>
+      </c>
+      <c r="F110" s="9">
+        <v>44.266474819999999</v>
+      </c>
+      <c r="G110" s="9">
+        <v>-124.0909954</v>
+      </c>
+      <c r="H110" s="16">
+        <v>36369</v>
+      </c>
+      <c r="I110" s="9">
+        <v>305</v>
+      </c>
+      <c r="J110" s="9">
+        <v>268</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>1703</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>1704</v>
+      </c>
+      <c r="P110" s="9" t="s">
+        <v>1706</v>
+      </c>
+      <c r="Q110" s="9">
+        <v>20.04393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>563</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" t="s">
+        <v>559</v>
+      </c>
+      <c r="D111" t="s">
+        <v>560</v>
+      </c>
+      <c r="E111">
         <v>175</v>
       </c>
-      <c r="F109">
-        <v>42.005341000000001</v>
-      </c>
-      <c r="G109">
-        <v>-118.215727</v>
-      </c>
-      <c r="H109" s="12">
-        <v>43744</v>
-      </c>
-      <c r="I109">
-        <v>619</v>
-      </c>
-      <c r="J109">
-        <v>574</v>
-      </c>
-      <c r="K109" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L109" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M109" t="s">
-        <v>2094</v>
-      </c>
-      <c r="N109" t="s">
-        <v>2094</v>
-      </c>
-      <c r="O109" t="s">
-        <v>2095</v>
-      </c>
-      <c r="P109" t="s">
-        <v>2096</v>
-      </c>
-      <c r="Q109">
-        <v>53.76</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>619</v>
-      </c>
-      <c r="B110" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" t="s">
-        <v>620</v>
-      </c>
-      <c r="D110" t="s">
-        <v>621</v>
-      </c>
-      <c r="E110">
+      <c r="F111">
+        <v>44.512563620000002</v>
+      </c>
+      <c r="G111">
+        <v>-121.7448306</v>
+      </c>
+      <c r="H111" s="12">
+        <v>36031</v>
+      </c>
+      <c r="I111">
+        <v>380</v>
+      </c>
+      <c r="J111">
+        <v>347</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M111" t="s">
+        <v>258</v>
+      </c>
+      <c r="N111" t="s">
+        <v>1660</v>
+      </c>
+      <c r="O111" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P111" t="s">
+        <v>1662</v>
+      </c>
+      <c r="Q111">
+        <v>95.901430000000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>569</v>
+      </c>
+      <c r="B112" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" t="s">
+        <v>565</v>
+      </c>
+      <c r="D112" t="s">
+        <v>566</v>
+      </c>
+      <c r="E112">
         <v>175</v>
       </c>
-      <c r="F110">
-        <v>42.309218999999999</v>
-      </c>
-      <c r="G110">
-        <v>-118.02612499999999</v>
-      </c>
-      <c r="H110" s="12">
-        <v>43704</v>
-      </c>
-      <c r="I110">
-        <v>706</v>
-      </c>
-      <c r="J110">
-        <v>700</v>
-      </c>
-      <c r="K110" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L110" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M110" t="s">
-        <v>2168</v>
-      </c>
-      <c r="N110" t="s">
-        <v>2169</v>
-      </c>
-      <c r="O110" t="s">
-        <v>2170</v>
-      </c>
-      <c r="P110" t="s">
-        <v>2171</v>
-      </c>
-      <c r="Q110">
-        <v>99.17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="E111" s="13">
+      <c r="F112">
+        <v>44.035050929999997</v>
+      </c>
+      <c r="G112">
+        <v>-121.7180685</v>
+      </c>
+      <c r="H112" s="12">
+        <v>36032</v>
+      </c>
+      <c r="I112">
+        <v>323</v>
+      </c>
+      <c r="J112">
+        <v>318</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M112" t="s">
+        <v>2115</v>
+      </c>
+      <c r="N112" t="s">
+        <v>2115</v>
+      </c>
+      <c r="O112" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P112" t="s">
+        <v>2117</v>
+      </c>
+      <c r="Q112">
+        <v>65.546599999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E113" s="9">
         <v>186</v>
       </c>
-      <c r="F111" s="13">
-        <v>42.151302000000001</v>
-      </c>
-      <c r="G111" s="13">
-        <v>-118.22303599999999</v>
-      </c>
-      <c r="H111" s="14">
-        <v>43714</v>
-      </c>
-      <c r="I111" s="13">
-        <v>922</v>
-      </c>
-      <c r="J111" s="13">
-        <v>898</v>
-      </c>
-      <c r="K111" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L111" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M111" s="13" t="s">
-        <v>2309</v>
-      </c>
-      <c r="N111" s="13" t="s">
-        <v>1828</v>
-      </c>
-      <c r="O111" s="13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="P111" s="13" t="s">
-        <v>2311</v>
-      </c>
-      <c r="Q111" s="13">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="E112" s="9">
-        <v>186</v>
-      </c>
-      <c r="F112" s="9">
-        <v>45.291649999999997</v>
-      </c>
-      <c r="G112" s="9">
-        <v>-121.4821</v>
-      </c>
-      <c r="H112" s="16">
-        <v>44805</v>
-      </c>
-      <c r="I112" s="9">
-        <v>692</v>
-      </c>
-      <c r="J112" s="9">
-        <v>662</v>
-      </c>
-      <c r="K112" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L112" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M112" s="9" t="s">
-        <v>2175</v>
-      </c>
-      <c r="N112" s="9" t="s">
-        <v>2176</v>
-      </c>
-      <c r="O112" s="9" t="s">
-        <v>2177</v>
-      </c>
-      <c r="P112" s="9" t="s">
-        <v>2180</v>
-      </c>
-      <c r="Q112" s="9">
-        <v>82.64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="E113" s="13">
-        <v>175</v>
-      </c>
-      <c r="F113" s="13">
-        <v>44.094110000000001</v>
-      </c>
-      <c r="G113" s="13">
-        <v>-121.85662000000001</v>
-      </c>
-      <c r="H113" s="14">
-        <v>44822</v>
-      </c>
-      <c r="I113" s="13">
-        <v>788</v>
-      </c>
-      <c r="J113" s="13">
-        <v>674</v>
-      </c>
-      <c r="K113" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L113" s="15" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M113" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="N113" s="13" t="s">
-        <v>1940</v>
-      </c>
-      <c r="O113" s="13" t="s">
-        <v>2293</v>
-      </c>
-      <c r="P113" s="13" t="s">
-        <v>2294</v>
-      </c>
-      <c r="Q113" s="13">
-        <v>72.39</v>
+      <c r="F113" s="9">
+        <v>45.273671800000002</v>
+      </c>
+      <c r="G113" s="9">
+        <v>-122.04405800000001</v>
+      </c>
+      <c r="H113" s="16">
+        <v>36020</v>
+      </c>
+      <c r="I113" s="9">
+        <v>277</v>
+      </c>
+      <c r="J113" s="9">
+        <v>259</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>1727</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>2198</v>
+      </c>
+      <c r="P113" s="9" t="s">
+        <v>2200</v>
+      </c>
+      <c r="Q113" s="9">
+        <v>32.235250000000001</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
@@ -55039,18 +55060,23 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="L135:L1048576 L1:L133">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"n"</formula>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J134">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>200</formula>
       <formula>250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>200</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L133 L135:L1048576">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"n"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55059,15 +55085,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D20178CB431FBB44BA390DFB7A67DCC0" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f06d39f5e5195813043b18c0798320e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6076d197-b432-4a89-8b9d-b97676e775aa" xmlns:ns3="3f71e46e-dbdb-4936-a808-49fb891fc3e2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac603009a4c2f59fcf530462a7c112af" ns2:_="" ns3:_="">
     <xsd:import namespace="6076d197-b432-4a89-8b9d-b97676e775aa"/>
@@ -55244,15 +55261,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EDC03B-F456-4799-BF9A-B7F5DDD3D4D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{825B5FFB-A515-4B66-B20C-4A4910453480}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55269,4 +55287,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EDC03B-F456-4799-BF9A-B7F5DDD3D4D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>